--- a/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
+++ b/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinni\Desktop\bag\DevOpsプラットフォーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E4A75-5614-440B-937A-FDD8AC181D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA218112-191A-4D45-95EE-9E572F22D3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前期讨论" sheetId="1" r:id="rId1"/>
-    <sheet name="DevOps概要" sheetId="2" r:id="rId2"/>
+    <sheet name="概要" sheetId="2" r:id="rId2"/>
     <sheet name="持续开发与集成" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <r>
       <t>DevOps的</t>
@@ -92,9 +92,6 @@
     <t>通过自动化“软件交付”和“架构变更”的流程，来使得构建、测试、发布软件能够更加地快捷、频繁和可靠。</t>
   </si>
   <si>
-    <t>DevOps（Development和Operations的组合词）是一种重视“软件开发人员（Dev）”和“IT运维技术人员（Ops）”之间沟通合作的文化、运动或惯例。</t>
-  </si>
-  <si>
     <t>DevOps不仅仅是个平台，更是一个方法论。</t>
   </si>
   <si>
@@ -142,10 +139,6 @@
   </si>
   <si>
     <t>各种公司则由于定位不同，实际上会参与产品的不同阶段的迭代。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>产品形态的最终定义，需要对产品发挥场景的明确定义。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -209,10 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→持续集成与交付(传统DevOps)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>持续集成与交付(CI/CD)是自动化软件交付阶段的做法。这些做法可让开发团队更快、更准确、更高效地完成基设功能和修补障碍。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,22 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(日文) https://ja.wikipedia.org/wiki/DevOps</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(日文)https://aws.amazon.com/jp/devops/what-is-devops/?nc1=h_ls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(中文)https://zh.wikipedia.org/wiki/DevOps</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(中文)https://aws.amazon.com/cn/devops/what-is-devops/?nc1=h_ls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>理解</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,12 +225,132 @@
     <t>这里不摘抄学习资料，简单总结如下：</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E7%BA%8C%E6%95%B4%E5%90%88</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/DevOps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/cn/devops/what-is-devops/?nc1=h_ls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redhat介绍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.redhat.com/zh/topics/devops/what-is-ci-cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敏捷开发</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%8F%E6%8D%B7%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Azure介绍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/zh-cn/azure/devops/?view=azure-devops</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>而包含CICD方式的敏捷方法则对交付方式进行了方法规划，在实施过程中更接近极限编程方法。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>传统的敏捷开发方法强调的是在Scrum期间的增量开发方式，可能更接近于改长期的瀑布为短期的瀑布。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DevOps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早期的DevOps是为了解决开发部门和运维部门之间的，对于软件产品的"功能迭代"与"运行稳定"之间的矛盾而发展出来的、针对多部门间的、沟通与协作问题的流程和方法。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目前的发展方向是要把市场运营、产品设计等更多的产品工作都纳入到整个DevOps体系中。这是目前的理论方向，暂时还没有比较好的实践。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→持续集成与交付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是一种依托于技术能力和组织能力的项目推进过程。主要目标是通过自动化的测试来保障主线代码的稳定。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持续集成与交付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平台形态的最终定义，需要对产品发挥场景的明确定义。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Development和Operations的组合词 是一种重视“软件开发人员（Dev）”和“IT运维技术人员（Ops）”之间沟通合作的文化、运动或惯例。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI/CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指的是持续集成和持续交付或持续部署的组合实践</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敏捷开发(Agile software development)，是一种从1990年代开始逐渐引起广泛关注的一些新型软件开发方法，是一种应对快速变化的需求的一种软件开发能力。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hyprn DevOps Platform的理想服务目标应该是"rule engine platform"。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目前公司的开发过程优化，可以着力在CD/CD(敏捷开发)上。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理念</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相对前期讨论的产品规划，我们可以归纳如下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>两者虽然在工具上有部分重叠，但是工具理念上应该并不相同。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一个是项目过程优化、最终产品形态是一套内部的开发流程和与之配套的开发工具(CICD工具)。目标客户是内部开发部门提升品质、降低成本。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一个是产品化的推进、最终产品形态是一个Saas服务平台，提供可自由定制的保险业务流程。目标客户是NRI及其客户(私域部署)，其他中小保险公司或相关公司(Saas部署)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>后面几个sheet页是对上述三个方法的推进方针的展开</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +447,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,8 +481,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -393,20 +505,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -420,12 +523,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1385,13 +1498,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>191828</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:colOff>169417</xdr:colOff>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1446,13 +1559,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1562,13 +1675,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>111499</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>87683</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1678,13 +1791,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>140074</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>143994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>116258</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1784,13 +1897,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>59393</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>35577</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>131669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1890,13 +2003,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>180977</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>124944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>158565</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1996,13 +2109,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>123266</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>12789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>48000</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2018,8 +2131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6779560" y="5974318"/>
-          <a:ext cx="3026148" cy="461035"/>
+          <a:off x="6801972" y="11084201"/>
+          <a:ext cx="3026148" cy="461034"/>
           <a:chOff x="7919140" y="6565989"/>
           <a:chExt cx="1856231" cy="454311"/>
         </a:xfrm>
@@ -2292,13 +2405,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>181623</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>48187</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>81058</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2314,7 +2427,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3610623" y="5465669"/>
+          <a:off x="3633035" y="10575551"/>
           <a:ext cx="6724564" cy="1002742"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
@@ -2588,13 +2701,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>187227</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>160244</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>73214</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2610,7 +2723,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6440109" y="5039846"/>
+          <a:off x="6462521" y="10149728"/>
           <a:ext cx="6024194" cy="569074"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
@@ -2905,14 +3018,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1679</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>100850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2927,8 +3040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="1413620" y="7978585"/>
-          <a:ext cx="11628905" cy="709336"/>
+          <a:off x="1436032" y="13088468"/>
+          <a:ext cx="11628905" cy="537885"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
         </a:xfrm>
@@ -3209,13 +3322,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>84040</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>39219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>155760</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3231,7 +3344,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="6135216" y="7278219"/>
+          <a:off x="6157628" y="12388101"/>
           <a:ext cx="4308666" cy="542365"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
@@ -3523,13 +3636,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>112057</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>181536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>90209</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3545,8 +3658,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="1725704" y="7633448"/>
-          <a:ext cx="10970560" cy="547408"/>
+          <a:off x="1748116" y="12743330"/>
+          <a:ext cx="10970559" cy="547408"/>
           <a:chOff x="7958547" y="6562191"/>
           <a:chExt cx="1816824" cy="458109"/>
         </a:xfrm>
@@ -3839,13 +3952,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>139889</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3861,8 +3974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1440517" y="4684059"/>
-          <a:ext cx="11569512" cy="565712"/>
+          <a:off x="1462929" y="9793941"/>
+          <a:ext cx="11569512" cy="565713"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
         </a:xfrm>
@@ -4152,6 +4265,796 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>18306</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>24091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008CE903-5BB1-46EE-B536-0E550C1E53AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885265" y="14903824"/>
+          <a:ext cx="10428571" cy="4495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>169681</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="组合 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C1B435-1DA0-43A1-8758-D1D02F6EF4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5053852" y="14825383"/>
+          <a:ext cx="4583207" cy="461033"/>
+          <a:chOff x="7919140" y="6565989"/>
+          <a:chExt cx="1856231" cy="454311"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="文本框 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1008D17B-31B3-4EFE-BBFE-046C2947DC1B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8635292" y="6565989"/>
+            <a:ext cx="584445" cy="336936"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>持续集成与交付</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="等腰三角形 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D4A804-BCF0-4C6F-A7C6-F9F7ABF3DFF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9721371" y="6964562"/>
+            <a:ext cx="54000" cy="54000"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="连接符: 肘形 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A01A7FC-5D62-4F96-98CF-CB7D03FBC39E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="60" idx="3"/>
+            <a:endCxn id="61" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9219737" y="6734457"/>
+            <a:ext cx="528634" cy="230105"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="连接符: 肘形 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87A98CC-C1A0-4D3A-B4F1-10CCF051F496}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="60" idx="1"/>
+            <a:endCxn id="65" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="7946140" y="6734457"/>
+            <a:ext cx="689153" cy="231843"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="等腰三角形 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDFB3B5-FACF-4D17-A1E8-0139DCAA32E8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7919140" y="6966300"/>
+            <a:ext cx="54000" cy="54000"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="66" name="组合 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAD23C9-F61A-4569-8E8C-825327958D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1736913" y="14209057"/>
+          <a:ext cx="8247528" cy="1064559"/>
+          <a:chOff x="7958547" y="6565989"/>
+          <a:chExt cx="1816824" cy="454311"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="文本框 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180C8B4C-C7B2-4AE3-9E75-5B737A83B20E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8755876" y="6565989"/>
+            <a:ext cx="241914" cy="156659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>敏捷开发</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="等腰三角形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D537D7F-96F9-42CB-B6BE-CD917F9AE093}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9760778" y="6996161"/>
+            <a:ext cx="14593" cy="22400"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="连接符: 肘形 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197A8673-781F-402A-B9B0-7397698023AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="67" idx="3"/>
+            <a:endCxn id="68" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8997790" y="6644319"/>
+            <a:ext cx="770285" cy="351843"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="70" name="连接符: 肘形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D79538-0273-4424-831F-5A159A1592DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="67" idx="1"/>
+            <a:endCxn id="71" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="7965844" y="6644318"/>
+            <a:ext cx="790033" cy="353581"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="等腰三角形 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B641555E-6820-42D7-B154-AE37AD2C1776}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7958547" y="6997900"/>
+            <a:ext cx="14593" cy="22400"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F568CA46-5922-45F7-85B7-D86CEA04D20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="15195176"/>
+          <a:ext cx="10096500" cy="3608295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115061</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="文本框 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BB97C5-77AB-4A5D-BEF5-984D4471C6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="14791765"/>
+          <a:ext cx="1470973" cy="419556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>理想</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>DevOps</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5208,8 +6111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5231,16 +6134,16 @@
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5255,290 +6158,1882 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D145"/>
+  <dimension ref="B3:BG193"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV15" sqref="AV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3"/>
+    <col min="1" max="2" width="2.625" style="3"/>
+    <col min="3" max="3" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+    </row>
+    <row r="5" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+    </row>
+    <row r="6" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+    </row>
+    <row r="7" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+    </row>
+    <row r="8" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+    </row>
+    <row r="9" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+    </row>
+    <row r="10" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+    </row>
+    <row r="11" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+    </row>
+    <row r="12" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+    </row>
+    <row r="13" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+    </row>
+    <row r="14" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+    </row>
+    <row r="15" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+    </row>
+    <row r="16" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+    </row>
+    <row r="17" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+    </row>
+    <row r="18" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+    </row>
+    <row r="19" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+    </row>
+    <row r="20" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+    </row>
+    <row r="21" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+    </row>
+    <row r="22" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+    </row>
+    <row r="23" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+    </row>
+    <row r="24" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+    </row>
+    <row r="25" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+    </row>
+    <row r="26" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+    </row>
+    <row r="27" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+    </row>
+    <row r="28" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+    </row>
+    <row r="29" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D65" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C94" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C95" s="4"/>
+      <c r="D95" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C96" s="4"/>
+      <c r="D96" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C98" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C99" s="4"/>
+      <c r="D99" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C100" s="4"/>
+      <c r="D100" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B102" s="5"/>
+      <c r="C102" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D103" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D104" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D105" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B108" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C109" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C45" s="7" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C110" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C115" s="4"/>
+      <c r="D115" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C118" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C123" s="4"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C146" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C46" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C48" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="4"/>
-      <c r="D49" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="4"/>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="4"/>
-      <c r="D53" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="4"/>
-      <c r="D54" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="6"/>
-      <c r="C56" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D57" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D58" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D59" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C70" s="4"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C75" s="4"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="4" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C150" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="4" t="s">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C151" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="4" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C152" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="4" t="s">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C153" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="4" t="s">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C154" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C106" s="4" t="s">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C155" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="4" t="s">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C156" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" s="4" t="s">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C157" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="4" t="s">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C158" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="4" t="s">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C159" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="4" t="s">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C160" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="4" t="s">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C161" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C162" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C163" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C164" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C165" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C167" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C193" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C115" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C116" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C117" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C118" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C119" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C145" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{F8B9E99C-00A2-4D35-A5ED-547524BB86F0}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{D996C458-6C42-4193-9BB8-011F3B9BF991}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{B4D5268B-7263-4308-B3C3-834BE34E83D4}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{78BA9CE1-182E-4BC7-8E9A-DFB9715881A8}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{3F3E59EF-D8E4-4BB1-8AC2-05A0710233AC}"/>
+    <hyperlink ref="B27" r:id="rId6" xr:uid="{966B9D57-4542-4800-BFCF-5A00E05EC6E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -5546,40 +8041,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105FDF0-2BE1-416B-9BBA-13B30D11A358}">
   <dimension ref="B7:DG61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX65" sqref="AX65"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="10"/>
+    <col min="1" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="23" spans="11:111" x14ac:dyDescent="0.15">
-      <c r="DF23" s="10" t="s">
-        <v>39</v>
+      <c r="DF23" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="11:111" x14ac:dyDescent="0.15">
-      <c r="K24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BO24" s="10" t="s">
+      <c r="K24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="DF24" s="10" t="s">
-        <v>37</v>
+      <c r="BO24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF24" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="11:111" x14ac:dyDescent="0.15">
-      <c r="K25" s="10" t="s">
-        <v>35</v>
+      <c r="K25" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="BO25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="11:111" x14ac:dyDescent="0.15">
@@ -5589,16 +8084,16 @@
       <c r="O33"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C39" s="12"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C42" s="12"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C45" s="12"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C48" s="12"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="61" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M61"/>

--- a/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
+++ b/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinni\Desktop\bag\DevOpsプラットフォーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA218112-191A-4D45-95EE-9E572F22D3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2EB650-E871-464C-ADB5-785C1B7515F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前期讨论" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <r>
       <t>DevOps的</t>
@@ -345,12 +345,16 @@
     <t>后面几个sheet页是对上述三个方法的推进方针的展开</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>目前的开发方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +467,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -489,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,16 +535,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5064,23 +5079,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>58430</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>116062</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 1">
+        <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB82DD68-4C03-4C93-850B-5746E7C83DB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C16159D-C6E7-4ADA-BB95-FFD99C77DD88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5088,12 +5103,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5508491" y="1473574"/>
-          <a:ext cx="2510118" cy="683559"/>
+          <a:off x="7456714" y="1279071"/>
+          <a:ext cx="5170715" cy="5129893"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5116,18 +5145,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日本側</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>上海側外部設計作成</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5135,23 +5153,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>60833</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104856</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 2">
+        <xdr:cNvPr id="48" name="矩形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE73987D-FD0C-4A81-B9F8-D7179A077B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D10D92-6C0B-4406-B74F-036939E4B5B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5159,12 +5177,33 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2449286" y="1462368"/>
-          <a:ext cx="2510118" cy="683559"/>
+          <a:off x="5363936" y="5268685"/>
+          <a:ext cx="6066064" cy="3399065"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5187,10 +5226,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日本側基本設計作成</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5198,23 +5234,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>93648</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120063</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>194501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>154480</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>116062</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="角丸四角形 3">
+        <xdr:cNvPr id="45" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B12D91A-6A1B-478C-8520-F66985957307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB82DD68-4C03-4C93-850B-5746E7C83DB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5222,12 +5258,32 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8870255" y="1473574"/>
-          <a:ext cx="2510118" cy="683559"/>
+          <a:off x="1752920" y="3460215"/>
+          <a:ext cx="2451688" cy="662747"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5246,67 +5302,46 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>上海側</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>日本側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>内部</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>設計作成</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>上海側</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>詳細設計作成</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上海側外部設計作成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5314,23 +5349,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176894</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>196903</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>71238</xdr:rowOff>
+      <xdr:rowOff>2401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 4">
+        <xdr:cNvPr id="46" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BA393C-4185-42CC-BC6A-8D7699BD659D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE73987D-FD0C-4A81-B9F8-D7179A077B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5338,12 +5373,32 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11974285" y="1428750"/>
-          <a:ext cx="2510118" cy="683559"/>
+          <a:off x="1401537" y="1380725"/>
+          <a:ext cx="2451688" cy="662747"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5362,35 +5417,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>上海側</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>テスト設計書作成</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日本側基本設計作成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5398,23 +5440,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>169688</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>92849</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93648</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>26413</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>164086</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 5">
+        <xdr:cNvPr id="47" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2ACD970-70CF-4A4B-9367-27591B1363B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B12D91A-6A1B-478C-8520-F66985957307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5422,12 +5464,32 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12007902" y="3154456"/>
-          <a:ext cx="2510118" cy="683559"/>
+          <a:off x="2747041" y="5392432"/>
+          <a:ext cx="2451688" cy="975712"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5446,35 +5508,116 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>上海側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>開発</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>設計作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>詳細設計作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>上海側テスト設計書作成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5482,23 +5625,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>48825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137672</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>88045</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>109657</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4802</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>90447</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="角丸四角形 6">
+        <xdr:cNvPr id="49" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C6A99A-D93B-44A2-86ED-9D05DAE04263}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2ACD970-70CF-4A4B-9367-27591B1363B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5506,12 +5649,32 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8825432" y="3199279"/>
-          <a:ext cx="2510118" cy="683559"/>
+          <a:off x="5598938" y="7603991"/>
+          <a:ext cx="2451688" cy="662747"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5530,35 +5693,47 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>上海側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>単体テスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5566,23 +5741,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>8804</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137672</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>171288</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>69636</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4802</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>173690</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52027</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 7">
+        <xdr:cNvPr id="50" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532A1145-1FF2-49DA-8948-735F688F5739}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C6A99A-D93B-44A2-86ED-9D05DAE04263}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5590,12 +5765,32 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5519697" y="3199279"/>
-          <a:ext cx="2510118" cy="683559"/>
+          <a:off x="8539681" y="5512494"/>
+          <a:ext cx="2451688" cy="662747"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5614,47 +5809,177 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>単体テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>36018</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>38421</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532A1145-1FF2-49DA-8948-735F688F5739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9424947" y="3525849"/>
+          <a:ext cx="2451688" cy="662747"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>日本</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>結合テスト</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5662,16 +5987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>178255</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5701,7 +6026,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1945822" y="5470073"/>
+          <a:off x="666751" y="6817181"/>
           <a:ext cx="9716861" cy="4082142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5723,16 +6048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>111579</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5762,7 +6087,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13525500" y="5306785"/>
+          <a:off x="1347107" y="12749892"/>
           <a:ext cx="6996793" cy="4946197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5784,16 +6109,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>143</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>115662</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>166008</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>74841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5823,7 +6148,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22234071" y="5170716"/>
+          <a:off x="925286" y="20437930"/>
           <a:ext cx="6996793" cy="4946196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5843,6 +6168,1155 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>178095</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121264</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>194501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3242AB-DE6F-4C03-B22C-658E7A4458A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2627381" y="2043472"/>
+          <a:ext cx="351383" cy="1416743"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121264</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>94849</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85646</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A04D21-3A7A-40AB-8260-A9DA976B212C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2978764" y="4122962"/>
+          <a:ext cx="994121" cy="1269470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>94849</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>89246</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75DD3D5-3D74-4598-9A02-CF7EC8E98DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3972885" y="6368144"/>
+          <a:ext cx="2851897" cy="1235847"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>89246</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>172489</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C73E0ED-9C6A-4737-B0AE-CDA4471F0C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+          <a:endCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6824782" y="6175241"/>
+          <a:ext cx="2940743" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>172489</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>37220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2017EABD-917C-4A7A-8126-EB62E0EC193C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="0"/>
+          <a:endCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9765525" y="4188596"/>
+          <a:ext cx="885266" cy="1323898"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>65954</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>68356</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACAA9A4-AA88-46CF-B8D3-183EC671F2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067204" y="1446678"/>
+          <a:ext cx="2451688" cy="662747"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リリース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>37220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>67155</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD280C8-4716-4881-BE10-5C7153845EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10650791" y="2109425"/>
+          <a:ext cx="642257" cy="1416424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="连接符: 肘形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2714DB6-A661-4D1F-91BB-6D057FC237F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11430000" y="3844018"/>
+          <a:ext cx="1197429" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -204318"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="347916"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED13D0E-0CEA-44CA-B7A6-D14631A5C8E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12817928" y="3415393"/>
+          <a:ext cx="1877437" cy="347916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>問題があれば、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>缲</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>す</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2529795" cy="773738"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="文本框 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51408990-8E34-4A35-87AD-602195F5B65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388428" y="5293179"/>
+          <a:ext cx="2529795" cy="773738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CI/CD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の範囲</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1826910" cy="773738"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="文本框 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1E305C-C378-4321-B24A-CDE980A0B1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7554685" y="4112079"/>
+          <a:ext cx="1826910" cy="773738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>品質向上</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="箭头: 上 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7580A27B-DC21-4D43-9344-C6701397F3B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8109857" y="4912179"/>
+          <a:ext cx="435429" cy="625928"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="箭头: 直角上 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54163D60-5DD0-4A6A-9576-34814B26BB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3694340" y="6021161"/>
+          <a:ext cx="1211036" cy="1932214"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11517"/>
+            <a:gd name="adj2" fmla="val 13202"/>
+            <a:gd name="adj3" fmla="val 21629"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>117469</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75052</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2032095" cy="1114536"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="文本框 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D0E21-5257-446B-AFFA-31D13455B6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3179076" y="7422909"/>
+          <a:ext cx="2032095" cy="1114536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テストケース</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2400" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>導入・管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6134,16 +7608,16 @@
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6160,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:BG193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV15" sqref="AV15"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BT55" sqref="BT55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6177,7 +7651,7 @@
       </c>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="4"/>
@@ -6425,7 +7899,7 @@
       <c r="BG7" s="4"/>
     </row>
     <row r="8" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="4"/>
@@ -6609,7 +8083,7 @@
       <c r="BG10" s="4"/>
     </row>
     <row r="11" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="4"/>
@@ -6731,7 +8205,7 @@
       <c r="BG12" s="4"/>
     </row>
     <row r="13" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="4"/>
@@ -6917,7 +8391,7 @@
       <c r="BG15" s="4"/>
     </row>
     <row r="16" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="4"/>
@@ -7101,7 +8575,7 @@
       <c r="BG18" s="4"/>
     </row>
     <row r="19" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="4"/>
@@ -7223,7 +8697,7 @@
       <c r="BG20" s="4"/>
     </row>
     <row r="21" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="4"/>
@@ -7409,7 +8883,7 @@
       <c r="BG23" s="4"/>
     </row>
     <row r="24" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="4"/>
@@ -7593,7 +9067,7 @@
       <c r="BG26" s="4"/>
     </row>
     <row r="27" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="4"/>
@@ -8039,10 +9513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105FDF0-2BE1-416B-9BBA-13B30D11A358}">
-  <dimension ref="B7:DG61"/>
+  <dimension ref="B5:DG115"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BP39" sqref="BP39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8050,53 +9524,64 @@
     <col min="1" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
     </row>
-    <row r="23" spans="11:111" x14ac:dyDescent="0.15">
-      <c r="DF23" s="7" t="s">
+    <row r="44" spans="111:111" x14ac:dyDescent="0.15">
+      <c r="DG44"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D49" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D50" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="O51"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C57" s="9"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C60" s="9"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C63" s="9"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C66" s="9"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D77" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="M79"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="11:111" x14ac:dyDescent="0.15">
-      <c r="K24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BO24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF24" s="7" t="s">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D115" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="11:111" x14ac:dyDescent="0.15">
-      <c r="K25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="11:111" x14ac:dyDescent="0.15">
-      <c r="DG26"/>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="O33"/>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C39" s="9"/>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C42" s="9"/>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C45" s="9"/>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C48" s="9"/>
-    </row>
-    <row r="61" spans="13:13" x14ac:dyDescent="0.15">
-      <c r="M61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
+++ b/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinni\Desktop\bag\DevOpsプラットフォーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2EB650-E871-464C-ADB5-785C1B7515F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69699F-0479-4152-953E-8783BBCC7336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前期讨论" sheetId="1" r:id="rId1"/>
-    <sheet name="概要" sheetId="2" r:id="rId2"/>
+    <sheet name="方针概要" sheetId="2" r:id="rId2"/>
     <sheet name="持续开发与集成" sheetId="4" r:id="rId3"/>
+    <sheet name="材料" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -129,9 +130,6 @@
   </si>
   <si>
     <t>日志管理：Cat+Sentry，还有种常用的是ELK。</t>
-  </si>
-  <si>
-    <t>很多公司为上DevOps而上，管理层根本不理解，它不是工具，而是流程，机制，方法和文化的结合体；工作模式，方法还是原始的，想通过上DevOps来解决，痴人说梦！</t>
   </si>
   <si>
     <t>软件开发大体可以分为以下几个阶段并且通过流程推进来进行迭代升级：</t>
@@ -342,19 +340,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>后面几个sheet页是对上述三个方法的推进方针的展开</t>
-    <phoneticPr fontId="1"/>
+    <t>CI/CD的开发方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>目前的开发方式</t>
+    <t>目前的开发方式及CICD范围</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DevOps不是工具，而是流程，机制，方法和文化的结合体；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作模式，方法还是原始的，想通过上DevOps来解决，痴人说梦！</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,7 +474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -469,19 +483,48 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -501,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,13 +575,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -547,7 +584,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,78 +1564,17 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>169417</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3" descr="preview">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="291354" y="17884588"/>
-          <a:ext cx="7565298" cy="2835088"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1690,13 +1684,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>111499</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>87683</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1806,13 +1800,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>140074</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>143994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>116258</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1912,13 +1906,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>59393</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>35577</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>131669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2018,13 +2012,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>180977</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>124944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>158565</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2124,13 +2118,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>123266</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>12789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>48000</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2146,7 +2140,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6801972" y="11084201"/>
+          <a:off x="6801972" y="9167995"/>
           <a:ext cx="3026148" cy="461034"/>
           <a:chOff x="7919140" y="6565989"/>
           <a:chExt cx="1856231" cy="454311"/>
@@ -2420,13 +2414,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>181623</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>48187</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>81058</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2442,8 +2436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3633035" y="10575551"/>
-          <a:ext cx="6724564" cy="1002742"/>
+          <a:off x="3633035" y="8659346"/>
+          <a:ext cx="6724564" cy="1002741"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
         </a:xfrm>
@@ -2716,13 +2710,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>187227</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>160244</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>73214</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2738,7 +2732,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6462521" y="10149728"/>
+          <a:off x="6462521" y="8233522"/>
           <a:ext cx="6024194" cy="569074"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
@@ -3033,13 +3027,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1679</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>100850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3055,7 +3049,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="1436032" y="13088468"/>
+          <a:off x="1436032" y="11172262"/>
           <a:ext cx="11628905" cy="537885"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
@@ -3337,13 +3331,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>84040</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>39219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>155760</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3359,7 +3353,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="6157628" y="12388101"/>
+          <a:off x="6157628" y="10471895"/>
           <a:ext cx="4308666" cy="542365"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
@@ -3651,13 +3645,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>112057</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>181536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>90209</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3673,8 +3667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="1748116" y="12743330"/>
-          <a:ext cx="10970559" cy="547408"/>
+          <a:off x="1748116" y="10827124"/>
+          <a:ext cx="10970559" cy="547409"/>
           <a:chOff x="7958547" y="6562191"/>
           <a:chExt cx="1816824" cy="458109"/>
         </a:xfrm>
@@ -3967,13 +3961,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>139889</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3989,7 +3983,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1462929" y="9793941"/>
+          <a:off x="1462929" y="7877735"/>
           <a:ext cx="11569512" cy="565713"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
@@ -4286,13 +4280,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>18306</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>24091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4309,7 +4303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4330,13 +4324,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>169681</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4352,7 +4346,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5053852" y="14825383"/>
+          <a:off x="5053852" y="12909177"/>
           <a:ext cx="4583207" cy="461033"/>
           <a:chOff x="7919140" y="6565989"/>
           <a:chExt cx="1856231" cy="454311"/>
@@ -4626,13 +4620,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4648,8 +4642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1736913" y="14209057"/>
-          <a:ext cx="8247528" cy="1064559"/>
+          <a:off x="1736913" y="12292852"/>
+          <a:ext cx="8247528" cy="1064558"/>
           <a:chOff x="7958547" y="6565989"/>
           <a:chExt cx="1816824" cy="454311"/>
         </a:xfrm>
@@ -4922,13 +4916,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4989,13 +4983,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>115061</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>94586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7320,6 +7314,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>164373</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 3" descr="preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A5DAA3-9DB4-41BE-9C79-8F5A63592D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="4991100"/>
+          <a:ext cx="7565298" cy="2835088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7585,8 +7645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7608,16 +7668,16 @@
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7632,10 +7692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:BG193"/>
+  <dimension ref="B3:BG120"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT55" sqref="BT55"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7645,17 +7705,18 @@
     <col min="4" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>31</v>
+    <row r="3" spans="2:59" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B3" s="17" t="s">
+        <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
-        <v>58</v>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="2:59" ht="21" x14ac:dyDescent="0.15">
+      <c r="B4" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -7714,7 +7775,7 @@
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7838,11 +7899,13 @@
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -7899,13 +7962,15 @@
       <c r="BG7" s="4"/>
     </row>
     <row r="8" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
-        <v>48</v>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -7960,9 +8025,11 @@
       <c r="BF8" s="4"/>
       <c r="BG8" s="4"/>
     </row>
-    <row r="9" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+    <row r="9" spans="2:59" ht="21" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -8021,8 +8088,8 @@
       <c r="BG9" s="4"/>
     </row>
     <row r="10" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8083,13 +8150,15 @@
       <c r="BG10" s="4"/>
     </row>
     <row r="11" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>49</v>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -8145,11 +8214,15 @@
       <c r="BG11" s="4"/>
     </row>
     <row r="12" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -8204,9 +8277,9 @@
       <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
     </row>
-    <row r="13" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B13" s="12" t="s">
-        <v>66</v>
+    <row r="13" spans="2:59" ht="21" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -8267,7 +8340,7 @@
       <c r="BG13" s="4"/>
     </row>
     <row r="14" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="4"/>
@@ -8330,12 +8403,14 @@
     </row>
     <row r="15" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -8391,8 +8466,8 @@
       <c r="BG15" s="4"/>
     </row>
     <row r="16" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
-        <v>47</v>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -8400,7 +8475,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -8512,998 +8589,223 @@
       <c r="BF17" s="4"/>
       <c r="BG17" s="4"/>
     </row>
-    <row r="18" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
-        <v>50</v>
+    <row r="18" spans="2:59" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>44</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-    </row>
-    <row r="20" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-    </row>
-    <row r="21" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B21" s="12" t="s">
-        <v>52</v>
+    </row>
+    <row r="25" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
+        <v>56</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-    </row>
-    <row r="22" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="26" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B28" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D54" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C83" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C84" s="4"/>
+      <c r="D84" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C85" s="4"/>
+      <c r="D85" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C87" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C88" s="4"/>
+      <c r="D88" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C89" s="4"/>
+      <c r="D89" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="5"/>
+      <c r="C91" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D92" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D93" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D94" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="15"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C97" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C98" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-    </row>
-    <row r="23" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>29</v>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C100" s="3">
+        <v>2</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-    </row>
-    <row r="24" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B24" s="11" t="s">
-        <v>53</v>
+      <c r="D100" s="3" t="s">
+        <v>69</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-    </row>
-    <row r="25" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-      <c r="BF25" s="4"/>
-      <c r="BG25" s="4"/>
-    </row>
-    <row r="26" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
-        <v>54</v>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C101" s="3">
+        <v>3</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
-    </row>
-    <row r="27" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="4"/>
-      <c r="BG27" s="4"/>
-    </row>
-    <row r="28" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-      <c r="BE28" s="4"/>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="4"/>
-    </row>
-    <row r="29" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B30" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="B32" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D65" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="4"/>
-      <c r="D95" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="4"/>
-      <c r="D96" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="4"/>
-      <c r="D99" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="4"/>
-      <c r="D100" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B102" s="5"/>
-      <c r="C102" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D103" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D104" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D105" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B108" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="3">
-        <v>1</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="3">
-        <v>2</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="3">
-        <v>3</v>
-      </c>
-      <c r="D113" s="3" t="s">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D102" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D114" s="3" t="s">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C103" s="4"/>
+      <c r="D103" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="4"/>
-      <c r="D115" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="4"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="5"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C146" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C150" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C151" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C152" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C153" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C154" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C155" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C156" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C157" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C158" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C159" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C160" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C161" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C162" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C163" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C164" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C165" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C166" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C167" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C193" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C111" s="4"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{F8B9E99C-00A2-4D35-A5ED-547524BB86F0}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{D996C458-6C42-4193-9BB8-011F3B9BF991}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{B4D5268B-7263-4308-B3C3-834BE34E83D4}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{78BA9CE1-182E-4BC7-8E9A-DFB9715881A8}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{3F3E59EF-D8E4-4BB1-8AC2-05A0710233AC}"/>
-    <hyperlink ref="B27" r:id="rId6" xr:uid="{966B9D57-4542-4800-BFCF-5A00E05EC6E6}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{F8B9E99C-00A2-4D35-A5ED-547524BB86F0}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{D996C458-6C42-4193-9BB8-011F3B9BF991}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{B4D5268B-7263-4308-B3C3-834BE34E83D4}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{78BA9CE1-182E-4BC7-8E9A-DFB9715881A8}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{3F3E59EF-D8E4-4BB1-8AC2-05A0710233AC}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{966B9D57-4542-4800-BFCF-5A00E05EC6E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -9515,8 +8817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105FDF0-2BE1-416B-9BBA-13B30D11A358}">
   <dimension ref="B5:DG115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP39" sqref="BP39"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9524,63 +8826,89 @@
     <col min="1" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E5" s="15" t="s">
-        <v>77</v>
+    <row r="5" spans="2:18" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="E5" s="19" t="s">
+        <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
     </row>
-    <row r="44" spans="111:111" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:111" x14ac:dyDescent="0.15">
       <c r="DG44"/>
+    </row>
+    <row r="47" spans="4:111" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D47" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D49" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D50" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="O51"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C57" s="9"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C60" s="9"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C63" s="9"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C66" s="9"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D77" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="O51"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C57" s="9"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C60" s="9"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C63" s="9"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C66" s="9"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D77" s="7" t="s">
+    <row r="79" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="M79"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="M79"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D114" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D115" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -9589,4 +8917,172 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0EFE6F-C5A0-4882-828A-DB36F9F62263}">
+  <dimension ref="B2:B38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
+++ b/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinni\Desktop\bag\DevOpsプラットフォーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69699F-0479-4152-953E-8783BBCC7336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B33D85-1E81-41CD-9FFD-0B59FC9C702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前期讨论" sheetId="1" r:id="rId1"/>
     <sheet name="方针概要" sheetId="2" r:id="rId2"/>
     <sheet name="持续开发与集成" sheetId="4" r:id="rId3"/>
-    <sheet name="材料" sheetId="5" r:id="rId4"/>
+    <sheet name="敏捷开发" sheetId="6" r:id="rId4"/>
+    <sheet name="DevOps" sheetId="7" r:id="rId5"/>
+    <sheet name="推进进度计划" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
   <si>
     <r>
       <t>DevOps的</t>
@@ -77,12 +79,6 @@
     <t>链路追踪：Zipkin。</t>
   </si>
   <si>
-    <t>产品和UI图：蓝湖。</t>
-  </si>
-  <si>
-    <t>公司内部文档：Confluence。</t>
-  </si>
-  <si>
     <t>报警：推送到工作群。</t>
   </si>
   <si>
@@ -94,12 +90,6 @@
   </si>
   <si>
     <t>DevOps不仅仅是个平台，更是一个方法论。</t>
-  </si>
-  <si>
-    <t>devops实现相关工具</t>
-  </si>
-  <si>
-    <t>devops平台搭建工具</t>
   </si>
   <si>
     <t>项目管理（PM）：jira。运营可以上去提问题，可以看到各个问题的完整的工作流，待解决未解决等</t>
@@ -114,9 +104,6 @@
     <t>持续交付CD（Continuous Delivery）：gitlab cd。完成单元测试后，可以把代码部署到连接数据库的 Staging 环境中更多的测试。如果代码没有问题，可以继续手动部署到生产环境中。</t>
   </si>
   <si>
-    <t>镜像仓库：VMware Harbor，私服nexus。</t>
-  </si>
-  <si>
     <t>容器：Docker。</t>
   </si>
   <si>
@@ -127,9 +114,6 @@
   </si>
   <si>
     <t>脚本语言：Python。</t>
-  </si>
-  <si>
-    <t>日志管理：Cat+Sentry，还有种常用的是ELK。</t>
   </si>
   <si>
     <t>软件开发大体可以分为以下几个阶段并且通过流程推进来进行迭代升级：</t>
@@ -166,30 +150,6 @@
   <si>
     <t>思考</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>是指软件个人研发的部分向软件整体部分交付，以便尽早发现个人开发部分的问题；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署是代码尽快向可运行的开发/测试节交付，以便尽早测试；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付是指研发尽快向客户交付，以便尽早发现生产环境中存在的问题。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续交付（Continuous delivery）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续部署（continuous deployment）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续交付（Continuous integration）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>比较适合Hyron现状的的开发方法</t>
@@ -348,26 +308,374 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>DevOps不是工具，而是流程，机制，方法和文化的结合体；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作模式，方法还是原始的，想通过上DevOps来解决，痴人说梦！</t>
-    </r>
+    <t>当前公司开发方式和CICD方式对照</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司现状</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI/CD方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码由开发者本人上传，上传时没有即时反馈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码提交</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码开发</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码品质</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍问题有预先定义的开发流程来进行管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分采用代码生成工具，详细设计书可生成代码。再由开发者疏通。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续采用代码生成工具，详细设计书可生成代码。再由开发者疏通。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译障碍和UT障碍基本通过人工介入来发现并反馈开发者</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细式样书、测试式样书和代码没有强关联，测试覆盖率必须通过经验者来确认</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细式样书、测试式样书和代码之间有强关联，测试覆盖率将得到必要的保证。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码由开发者本人(申请)上传，上传后即时反馈编译、UT的结果。开发者可以及时得到反馈并修正障碍问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI/CD的开发流程和采用工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍问题在定时编译、同行评审、测试等阶段暴露(※)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jira</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>自研</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本使用比较常见？NRI已经导入</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理与业界比较统一，方便推广</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可定制插件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Hyron DevOps平台之间可能会有集成问题(应用方式、流程主次等)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理流程可定制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广方面比较困难</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费产品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发费用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Hyron DevOps平台之间没有集成问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是完成持续集成与交付的一系列工具链，通过读取项目管理平台的配置要求来自动完成CICD功能。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码仓库</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建配置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用及工件管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码检查</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目应用及上线计划</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目应用及上线计划并非传统意义上的项目管理平台。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对于普通项目管理平台，项目应用和上线计划除了用于项目的进度管理外，将更多的组织和管理起各个开发阶段的设计、测试的内容、以及CICD的流程配置管理。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续集成与交付</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI/CD的推进</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常上，提升代码质量、降低流程上的人力消耗是最大的优势。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了平台的开发成本外，公司目前开发流程的更新的成本可能很大。同时也会涉及到和NRI的开发流程的适配。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上，个人感觉推进成本和产生的效益的情况都不可控，暂时不适合作为主要推进方向。更适合在自研项目的方向上实践。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先度相对较低。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷开发方式及适配范围</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷的开发方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样一个设计管理工具应该可以完成以下几个功能，重要性依次向下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论以CI/CD方式还是现有方式为基础，一个适应性比较强的设计管理工具都应该可以进行合理的适配，并以此为基础来达到一个类似敏捷开发的项目开发流程。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以以版本迭代的方式管理详细设计书的内容和测试式样书的内容，并且可以导入导出目前的设计书。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对接有的代码生成工具，尽可能的达到降低单纯制造的工数的目标。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对接代码管理工具，使得代码版本和各种文档能强关联，对于代码影响范围的估算有明确依据。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对接项目管理工具，对于开发、测试的任务进行管理和分配。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>以类似伪代码的方式编辑业务流程，编辑后的业务流程可以导出为NRI格式的各种设计书。使SE可以专注业务实现，不再陷入繁琐的文档格式的低效工作。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的设计书可以对接公司现有的代码生成工具，提高生成代码的品质，提高工具的效率。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成的代码和设计书内容及测试项目在伪代码层面进行强关联，以此为基础就能对项目的整体产出物进行整体管理。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷的开发流程和采用工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左图为基础的敏捷开发流程</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心为敏捷开发工具，同时兼顾项目管理和项目测试(比较完整的敏捷+CICD流程)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有项目管理和项目测试，则为单纯的设计书编辑工具。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>自研设计工具的概念图</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷的开发流程的推进</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较适合目前公司希望更进一步提高生产能力的要求。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要迭代开发和推进，需要一定周期和人力成本。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先度相对CICD为高。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps及适配范围</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps开发方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps流程和采用工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左图是DevOps的主要应用功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps流程的推进</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速的功能迭代可以适应快速变化的用户需求，所以DevOps应该是规则引擎平台的开发方式。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INNORULE是一个通过图形化编辑的方式来进行业务编辑的规则引擎编辑平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过规则引擎平台的研发，使得公司从一个外包型公司转向成为产品型公司。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INNORULE平台的概念流程</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续开发与集成所采用的工具基本与DevOps工具相同。</t>
+  </si>
+  <si>
+    <t>规则引擎平台中包含的子平台在【INNORULE平台的概念】中描述</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>明补充</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上，个人感觉推进成本可控、产生的效益值得期待，建议可以推进。此工具更适合在目前公司的NRI项目上运用。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上，个人感觉推进成本比较高，但是产生的效益比较明显。更适合实现公司提出的更高的目标。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI/CD的目前进展</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚未推进</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷开发的目前进展</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计、技术验证</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps的目前进展</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型开发完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础工具同【持续开发与集成】的工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像仓库：私服nexus。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理：ELK。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,16 +806,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -544,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,12 +878,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -602,7 +896,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5073,16 +5379,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>110807</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>143628</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5097,8 +5403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7456714" y="1279071"/>
-          <a:ext cx="5170715" cy="5129893"/>
+          <a:off x="5295720" y="1192698"/>
+          <a:ext cx="4008473" cy="2319128"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5147,16 +5453,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92230</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5171,8 +5477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5363936" y="5268685"/>
-          <a:ext cx="6066064" cy="3399065"/>
+          <a:off x="3511705" y="3374251"/>
+          <a:ext cx="3873897" cy="2140724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5228,16 +5534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120063</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>194501</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200453</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>48827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>40819</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5252,8 +5558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752920" y="3460215"/>
-          <a:ext cx="2451688" cy="662747"/>
+          <a:off x="995583" y="2409370"/>
+          <a:ext cx="2209786" cy="323959"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5301,7 +5607,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5313,7 +5619,7 @@
             <a:t>日本側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5325,7 +5631,7 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5343,16 +5649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>176894</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69223</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>156082</xdr:rowOff>
+      <xdr:rowOff>81540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>179296</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2401</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189312</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5367,8 +5673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1401537" y="1380725"/>
-          <a:ext cx="2451688" cy="662747"/>
+          <a:off x="864353" y="1406757"/>
+          <a:ext cx="1726916" cy="323961"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5416,7 +5722,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5434,16 +5740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>93648</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85646</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15696</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>96050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5458,8 +5764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2747041" y="5392432"/>
-          <a:ext cx="2451688" cy="975712"/>
+          <a:off x="1423739" y="3304761"/>
+          <a:ext cx="1988695" cy="914798"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5507,7 +5813,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5521,7 +5827,7 @@
             <a:t>上海側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5535,7 +5841,7 @@
             <a:t>内部</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5546,7 +5852,7 @@
             </a:rPr>
             <a:t>設計作成</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent5">
                 <a:lumMod val="75000"/>
@@ -5559,7 +5865,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5573,7 +5879,7 @@
             <a:t>上海側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5586,7 +5892,7 @@
             </a:rPr>
             <a:t>詳細設計作成</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent5">
                 <a:lumMod val="75000"/>
@@ -5601,7 +5907,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5619,16 +5925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>88045</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>52027</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>21543</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>90447</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>102452</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>159442</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5643,8 +5949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5598938" y="7603991"/>
-          <a:ext cx="2451688" cy="662747"/>
+          <a:off x="4241118" y="4945759"/>
+          <a:ext cx="1738099" cy="322243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5692,7 +5998,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5706,7 +6012,7 @@
             <a:t>上海側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5719,7 +6025,7 @@
             </a:rPr>
             <a:t>開発</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent5">
                 <a:lumMod val="75000"/>
@@ -5735,16 +6041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>171288</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1601</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>173690</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52027</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>138396</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5759,8 +6065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8539681" y="5512494"/>
-          <a:ext cx="2451688" cy="662747"/>
+          <a:off x="5385436" y="3811115"/>
+          <a:ext cx="1726917" cy="319759"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5808,7 +6114,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5822,7 +6128,7 @@
             <a:t>上海側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5835,7 +6141,7 @@
             </a:rPr>
             <a:t>単体テスト</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent5">
                 <a:lumMod val="75000"/>
@@ -5851,16 +6157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>36018</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>151005</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>38421</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>106453</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>88877</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5875,8 +6181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9424947" y="3525849"/>
-          <a:ext cx="2451688" cy="662747"/>
+          <a:off x="6727396" y="2479910"/>
+          <a:ext cx="1726916" cy="319759"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5924,7 +6230,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5938,7 +6244,7 @@
             <a:t>日本</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5952,7 +6258,7 @@
             <a:t>側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -5965,7 +6271,7 @@
             </a:rPr>
             <a:t>結合テスト</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent5">
                 <a:lumMod val="75000"/>
@@ -5981,23 +6287,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>81645</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>105657</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>178255</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>178887</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="图片 51">
+        <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0F8977-33A3-41AB-8B15-1538D38C169B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B362670A-4FF3-4A2C-AF90-26BF36219F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,135 +6326,22 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="666751" y="6817181"/>
-          <a:ext cx="9716861" cy="4082142"/>
+          <a:off x="9787539" y="9905199"/>
+          <a:ext cx="4914172" cy="3665124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="图片 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B362670A-4FF3-4A2C-AF90-26BF36219F73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1347107" y="12749892"/>
-          <a:ext cx="6996793" cy="4946197"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>166008</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>74841</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="图片 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6E52FC-F010-47F8-962C-D667E9EA8E22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="925286" y="20437930"/>
-          <a:ext cx="6996793" cy="4946196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -6164,16 +6357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>178095</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2401</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120985</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>121264</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>194501</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96085</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>48827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6191,8 +6384,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2627381" y="2043472"/>
-          <a:ext cx="351383" cy="1416743"/>
+          <a:off x="1727811" y="1730718"/>
+          <a:ext cx="372665" cy="678652"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6232,16 +6425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>121264</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>40819</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96085</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>94849</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85646</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16130</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6259,8 +6452,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2978764" y="4122962"/>
-          <a:ext cx="994121" cy="1269470"/>
+          <a:off x="2100476" y="2733329"/>
+          <a:ext cx="317611" cy="571432"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6300,16 +6493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>94849</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>89246</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>52027</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>90493</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6321,14 +6514,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="2"/>
+          <a:stCxn id="47" idx="3"/>
           <a:endCxn id="49" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3972885" y="6368144"/>
-          <a:ext cx="2851897" cy="1235847"/>
+          <a:off x="3436039" y="3797776"/>
+          <a:ext cx="1674129" cy="1147983"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6368,16 +6561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>89246</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52027</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>90493</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>172489</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>52027</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>70068</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6395,8 +6588,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6824782" y="6175241"/>
-          <a:ext cx="2940743" cy="1428750"/>
+          <a:off x="5110168" y="4171459"/>
+          <a:ext cx="1179725" cy="774300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6436,16 +6629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>172489</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>106453</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>70069</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>37220</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1601</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>20550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6463,8 +6656,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9765525" y="4188596"/>
-          <a:ext cx="885266" cy="1323898"/>
+          <a:off x="6248895" y="2799669"/>
+          <a:ext cx="1341959" cy="1011446"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6504,16 +6697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>65954</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>17928</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>134167</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>68356</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68354</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>72039</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6528,8 +6721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10067204" y="1446678"/>
-          <a:ext cx="2451688" cy="662747"/>
+          <a:off x="7306906" y="1466899"/>
+          <a:ext cx="1726916" cy="319759"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6577,7 +6770,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -6591,7 +6784,7 @@
             <a:t>日本</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -6605,7 +6798,7 @@
             <a:t>側</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -6618,7 +6811,7 @@
             </a:rPr>
             <a:t>リリース</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent5">
                 <a:lumMod val="75000"/>
@@ -6634,16 +6827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>37220</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68354</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>20550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>67155</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>3712</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119367</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6661,8 +6854,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10650791" y="2109425"/>
-          <a:ext cx="642257" cy="1416424"/>
+          <a:off x="7590854" y="1786658"/>
+          <a:ext cx="579510" cy="693252"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6702,16 +6895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>170089</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>143628</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6729,20 +6922,20 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11430000" y="3844018"/>
-          <a:ext cx="1197429" cy="3124200"/>
+          <a:off x="7385602" y="2371726"/>
+          <a:ext cx="1978226" cy="2072887"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -204318"/>
+            <a:gd name="adj1" fmla="val -100632"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="7030A0"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -6771,12 +6964,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>179851</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101446</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1877437" cy="347916"/>
+    <xdr:ext cx="2089583" cy="347916"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3">
@@ -6790,8 +6983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12817928" y="3415393"/>
-          <a:ext cx="1877437" cy="347916"/>
+          <a:off x="9340416" y="2461989"/>
+          <a:ext cx="2089583" cy="347916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6813,7 +7006,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -6904,12 +7097,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9047</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170224</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2529795" cy="773738"/>
+    <xdr:ext cx="1490104" cy="475643"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="文本框 56">
@@ -6923,8 +7116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5388428" y="5293179"/>
-          <a:ext cx="2529795" cy="773738"/>
+          <a:off x="3603699" y="3359028"/>
+          <a:ext cx="1490104" cy="475643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6946,14 +7139,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="3200" b="1" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="95000"/>
@@ -6968,7 +7161,7 @@
             <a:t>CI/CD</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="95000"/>
@@ -6982,7 +7175,7 @@
             </a:rPr>
             <a:t>の範囲</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200" b="1">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="95000"/>
@@ -6999,12 +7192,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>2721</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>29936</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>185915</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105252</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1826910" cy="773738"/>
+    <xdr:ext cx="1172434" cy="381799"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="文本框 57">
@@ -7018,8 +7211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7554685" y="4112079"/>
-          <a:ext cx="1826910" cy="773738"/>
+          <a:off x="5370828" y="2672861"/>
+          <a:ext cx="1172434" cy="381799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7041,13 +7234,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="3200" b="1">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="95000"/>
@@ -7059,7 +7252,7 @@
             </a:rPr>
             <a:t>品質向上</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200" b="1">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="95000"/>
@@ -7076,16 +7269,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>108266</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>17040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22009</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7100,8 +7293,2744 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8109857" y="4912179"/>
-          <a:ext cx="435429" cy="625928"/>
+          <a:off x="5690744" y="3115692"/>
+          <a:ext cx="306339" cy="302187"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5188</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157368</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30809</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="箭头: 直角上 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54163D60-5DD0-4A6A-9576-34814B26BB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2687740" y="3613072"/>
+          <a:ext cx="584902" cy="1941224"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11517"/>
+            <a:gd name="adj2" fmla="val 13202"/>
+            <a:gd name="adj3" fmla="val 21629"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27336</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28217</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1681311" cy="773802"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="文本框 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D0E21-5257-446B-AFFA-31D13455B6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1236597" y="4873543"/>
+          <a:ext cx="1681311" cy="773802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テストケース</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>導入・管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85022</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BFBC3B-CCB2-446E-A30C-F1D21DFEFEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="369793" y="11590884"/>
+          <a:ext cx="3768397" cy="3705145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>54245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="图片 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24B9440-2590-4263-9455-A64B00F0FF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232648" y="17671676"/>
+          <a:ext cx="7182970" cy="2631598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62193</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81243</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>205769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="图片 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0258E3F5-BE8E-48EE-9150-698C789F4BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1496546" y="22547917"/>
+          <a:ext cx="825873" cy="461822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>202769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="图片 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ACB403-A3BC-42C4-B351-D598CB82FD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="25822274"/>
+          <a:ext cx="790575" cy="174195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>62172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="图片 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB36B066-A34C-4D08-90FE-B8107C0FEFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="26031825"/>
+          <a:ext cx="742950" cy="243148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>155559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A07ACF-C6B9-4EA4-8ED5-78E38960917A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1030941" y="27062206"/>
+          <a:ext cx="974912" cy="368471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>212910</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>117985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="图片 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8652B01B-BADB-4321-ABC0-C2BC5A067737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019734" y="27454411"/>
+          <a:ext cx="1075765" cy="364515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7770</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>180383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="图片 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E71EEE3-12ED-4CE5-BBAE-4EB462F7E3AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1053353" y="28272441"/>
+          <a:ext cx="590476" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>143259</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>200545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="图片 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CBD76A-9474-48DA-A600-E10214E631CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="974911" y="29068059"/>
+          <a:ext cx="1409524" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4406</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>60460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="图片 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D96211-90D5-435A-8FC4-8AA4A7FBAC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1030941" y="29897295"/>
+          <a:ext cx="609524" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>62956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79688D40-77DC-4535-94DA-C7EB7D4FD3EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="941294" y="30816177"/>
+          <a:ext cx="829235" cy="354309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>21369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="图片 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436DC2F6-6DF1-44C9-A2E2-88633C3EAFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7037294" y="22434178"/>
+          <a:ext cx="7754470" cy="4649396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>201707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>65304</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="图片 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2B3A08-8205-43F7-809D-36CDEB8F6D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6331325" y="27689736"/>
+          <a:ext cx="8682626" cy="4874558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>52828</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3460CB8-0D16-4A00-8332-1FBBB7055E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6844567" y="1432890"/>
+          <a:ext cx="3069716" cy="2142113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87260</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313A5480-BBCF-43F5-9958-04C6716E0A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1909434" y="3105260"/>
+          <a:ext cx="6638218" cy="2079653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>178319</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>46416</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4034228-0433-4429-ACAC-929587A49ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4584667" y="3215465"/>
+          <a:ext cx="3843749" cy="1870057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125909</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15141</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604F7063-A508-440C-838C-1A7FEE9141C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1550518" y="2508761"/>
+          <a:ext cx="2077264" cy="281054"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>日本側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>上海側外部設計作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176895</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57742</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCCAB90-8FCE-41C3-8C58-F7BBA8AEDC9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1402721" y="1481300"/>
+          <a:ext cx="1669891" cy="281056"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>日本側基本設計作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107673</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7570DB-808F-4021-8D1C-EEF88A8EA3FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2378673" y="3563471"/>
+          <a:ext cx="1936565" cy="942268"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>設計作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>詳細設計作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>上海側テスト設計書作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>109969</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>192169</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2884052-16B6-44D7-89E2-DA86717C1EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5112665" y="4663491"/>
+          <a:ext cx="1672461" cy="277410"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>177137</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>60554</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7F6E51-94E9-46F7-A6C1-AABABB8DB3FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372528" y="3720008"/>
+          <a:ext cx="1672461" cy="277410"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>単体テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1915</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>81546</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F1FEE6-2793-49E8-BDBD-7773E696FC49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7588785" y="2571018"/>
+          <a:ext cx="1669891" cy="277410"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>結合テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170628</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB76552-4C9F-4934-8E0E-48154571E585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2237667" y="1762356"/>
+          <a:ext cx="351483" cy="746405"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170628</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133304</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3F994F-2041-4D3A-96DB-5F1928C4AC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2589150" y="2789815"/>
+          <a:ext cx="757806" cy="773656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107673</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>151070</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76756C1B-9D14-46B9-B15A-F1CCEB939FC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4315238" y="4034605"/>
+          <a:ext cx="1633658" cy="628886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>151070</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19455</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B52FAF3-AAA0-493D-97EE-B3C0057B4BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5948896" y="3997418"/>
+          <a:ext cx="1259863" cy="666073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19455</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>41731</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F712D037-AAC5-486F-B4E2-5CE63DADA756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7208759" y="2848428"/>
+          <a:ext cx="1214972" cy="871580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76186</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>155816</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC7E0B2-2D57-4DD3-9CD1-BE0C3B1583C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7861838" y="1615984"/>
+          <a:ext cx="1669891" cy="277411"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リリース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>41731</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>116001</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3409</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2534DFA-C0D4-4031-B931-DF5120B5DACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8423731" y="1893395"/>
+          <a:ext cx="273053" cy="677623"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>46416</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>143404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="连接符: 肘形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C648BA8-E169-48D1-A9D1-9ED87978A071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8428416" y="2503947"/>
+          <a:ext cx="1485867" cy="1646547"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -122411"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>140389</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2054</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1913698" cy="347916"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF366B8-9452-46EA-BD05-AB01BB839F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9913867" y="2569663"/>
+          <a:ext cx="1913698" cy="347916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>問題があれば、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>缲</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>す</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17331</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1307886" cy="347916"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B765880-EA86-4A7E-827C-E656F15C38EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1839505" y="3188365"/>
+          <a:ext cx="1307886" cy="347916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アジャイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>53392</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>198310</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1278516" cy="331234"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1072C6D5-3F10-4C8D-BF16-2C53F42508E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845131" y="2144723"/>
+          <a:ext cx="1278516" cy="331234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>品質向上</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>58570</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>156012</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="箭头: 上 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708303D3-393D-4BC0-9CF2-F49876F9CF9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7049092" y="2898881"/>
+          <a:ext cx="296224" cy="439009"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -7137,22 +10066,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>68037</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>50497</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41416</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="箭头: 直角上 33">
+        <xdr:cNvPr id="23" name="箭头: 直角上 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54163D60-5DD0-4A6A-9576-34814B26BB87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24A8937-8443-43F1-AD9D-EF53DFA33115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7160,14 +10089,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3694340" y="6021161"/>
-          <a:ext cx="1211036" cy="1932214"/>
+          <a:off x="3971909" y="3864239"/>
+          <a:ext cx="314743" cy="1730263"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 11517"/>
-            <a:gd name="adj2" fmla="val 13202"/>
-            <a:gd name="adj3" fmla="val 21629"/>
+            <a:gd name="adj1" fmla="val 24863"/>
+            <a:gd name="adj2" fmla="val 24323"/>
+            <a:gd name="adj3" fmla="val 43872"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7203,18 +10132,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>117469</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>75052</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192988</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132694</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2032095" cy="1114536"/>
+    <xdr:ext cx="1625793" cy="560923"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="文本框 58">
+        <xdr:cNvPr id="24" name="文本框 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D0E21-5257-446B-AFFA-31D13455B6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B03467-1DE4-42F0-9429-78E173D94085}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7222,8 +10151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3179076" y="7422909"/>
-          <a:ext cx="2032095" cy="1114536"/>
+          <a:off x="2015162" y="4563890"/>
+          <a:ext cx="1625793" cy="560923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7245,14 +10174,106 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="1" i="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>詳細設計</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>プラットフォーム</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7003</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>194860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1177410" cy="880434"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="文本框 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F6685E-08D7-4351-97AC-97F0BC35BD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4413351" y="3176599"/>
+          <a:ext cx="1177410" cy="880434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="95000"/>
@@ -7264,9 +10285,27 @@
               <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>テストケース</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2400" b="1" i="0">
+            <a:t>CI/CD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或者</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="1" i="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="95000"/>
@@ -7282,7 +10321,1330 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="1" i="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>目前方式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124237</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>175004</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="图片 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B05400-EE53-46EF-BEBD-BACB2CB4616E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="521802" y="13152781"/>
+          <a:ext cx="9029115" cy="5093806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>144172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="图片 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFDD346-5FDC-4710-8A59-3C1F8F2399C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="513521" y="9003197"/>
+          <a:ext cx="5019261" cy="3606301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DE772F-F3F8-411E-A843-947624A19D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="6915150"/>
+          <a:ext cx="8067675" cy="4381499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矩形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A018875-37D0-4B72-93F1-CB6331B4026B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266826" y="8429625"/>
+          <a:ext cx="7162800" cy="2362199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58745</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922225B4-7303-4BEB-A633-5B588FFA2125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006414" y="9184545"/>
+          <a:ext cx="2090931" cy="286023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>業務設計</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCF3C7E-6978-47E3-9568-AAFFA3D9C894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="7486650"/>
+          <a:ext cx="1828800" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>お客様の機能要望</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>マーケットの調査　など</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>41708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A618317-2C02-40BF-94E7-6B5E100FB521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="9976283"/>
+          <a:ext cx="2114549" cy="329768"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プラットフォーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設計</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>140302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5005F27-AC38-440D-AB90-4F4F916FC6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="10004532"/>
+          <a:ext cx="1952625" cy="279895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152642</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626C6EFA-6C12-4D3E-BEF5-F98F502EA0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791442" y="9181975"/>
+          <a:ext cx="1961908" cy="279895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13405</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6879C285-7E4A-4612-BCE6-BDBB131D8BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3051880" y="8124825"/>
+          <a:ext cx="15170" cy="1059720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13405</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>41708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAFE39F-6C74-4A56-925D-9A437A86051E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3048000" y="9470568"/>
+          <a:ext cx="3880" cy="505715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>206592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502998DC-E012-4A95-91A6-225636981DB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105274" y="10141167"/>
+          <a:ext cx="1685926" cy="3313"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>133471</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDFADA4-7A91-42B3-979F-F1883CB3B8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="0"/>
+          <a:endCxn id="35" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6767513" y="9461870"/>
+          <a:ext cx="4883" cy="542662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>70741</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2315EC80-FE08-4E93-AAC7-17298B93D39B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5709541" y="7567453"/>
+          <a:ext cx="2148584" cy="279896"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プラットフォームへリリース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>133471</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>144908</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接箭头连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653E02D0-5878-4681-BC17-4B14990B2BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="0"/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6772396" y="7847349"/>
+          <a:ext cx="11437" cy="1334626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23069</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130507</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2348656" cy="433067"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD6FD53-DE85-4121-B64B-3AC2430B421D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="842219" y="6921832"/>
+          <a:ext cx="2348656" cy="433067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="95000"/>
@@ -7294,9 +11656,69 @@
               <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>導入・管理</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:t>規則</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>エンジン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="95000"/>
@@ -7311,68 +11733,2022 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>164373</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 3" descr="preview">
+    <xdr:ext cx="1857375" cy="475643"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="文本框 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A5DAA3-9DB4-41BE-9C79-8F5A63592D6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69167D90-5C50-4C47-B32C-F3DA70A4018B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="4991100"/>
-          <a:ext cx="7565298" cy="2835088"/>
+          <a:off x="3914774" y="8486775"/>
+          <a:ext cx="1857375" cy="475643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DevOps</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="矩形 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F284C9-8FC2-440E-9D5F-4F427BDFA9F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1504950"/>
+          <a:ext cx="8067675" cy="4381499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2348656" cy="433067"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="文本框 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9384EDE-1D08-4AAF-A173-D24DB8E4A8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1504950"/>
+          <a:ext cx="2348656" cy="433067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>規則エンジン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="矩形 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6FC361-2702-4D7F-A172-56E0C9E6A17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1291490" y="3378173"/>
+          <a:ext cx="7080985" cy="2336827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="openDmnd">
+          <a:fgClr>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>34739</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>125420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B7ACAA-517B-47B5-8040-210CA6746B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2073089" y="2764695"/>
+          <a:ext cx="2090931" cy="286023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>お客様の業務設計</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128497</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68871A24-F505-479C-AFD4-A152E29F494C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1981985"/>
+          <a:ext cx="1681072" cy="247925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>新しい機能要望</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6473</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D67EB32-90BC-43A5-BAA4-7C7B1A94131A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2044823" y="3785033"/>
+          <a:ext cx="2117602" cy="367868"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>業務プロセス設計</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95824D39-5B28-436F-947F-EB70F4AFDF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="4975332"/>
+          <a:ext cx="2171700" cy="279895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>業務プロセステスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>148870</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>191011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>28476</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51806</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E93845-8BBA-4B24-9039-C29059BF36ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5987695" y="3839086"/>
+          <a:ext cx="1679831" cy="279895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リリース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88061</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直接箭头连接符 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993FE57B-007A-4D29-8786-00057F919650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="2"/>
+          <a:endCxn id="135" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3118555" y="2229910"/>
+          <a:ext cx="7981" cy="534785"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直接箭头连接符 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9F515F-359E-46F5-9254-CA19B47B3EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="2"/>
+          <a:endCxn id="137" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3103624" y="3050718"/>
+          <a:ext cx="14931" cy="734315"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>188686</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直接箭头连接符 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052E5927-DB48-449E-BBF1-7B7C90D7983A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="138" idx="0"/>
+          <a:endCxn id="140" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6810375" y="4118981"/>
+          <a:ext cx="17236" cy="856351"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>156466</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>36071</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F5BA1-8088-459F-A801-7B7ECDD30EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5995291" y="1985803"/>
+          <a:ext cx="1679830" cy="279896"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>運用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>188686</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>196281</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>191011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直接箭头连接符 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F130D9D7-1FE6-4038-8444-9C5B1739E969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="0"/>
+          <a:endCxn id="146" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6827611" y="2265699"/>
+          <a:ext cx="7595" cy="1573387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42119</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2751</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1720006" cy="326628"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="文本框 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B44204C-4A68-470E-9024-779CF81AA2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280369" y="3441276"/>
+          <a:ext cx="1720006" cy="326628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INNORULE SAAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>範囲</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>148870</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121409</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直接箭头连接符 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC7C42C-6FA4-497F-963D-343CCEA1BD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="140" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="3968967"/>
+          <a:ext cx="1825270" cy="10067"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128497</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>156466</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直接箭头连接符 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8756B9-18C1-4E1A-A523-761A50996BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="146" idx="1"/>
+          <a:endCxn id="136" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3967072" y="2105948"/>
+          <a:ext cx="2028219" cy="19803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94998</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE670E34-4819-4750-9A50-C4A645CC8E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933323" y="4984857"/>
+          <a:ext cx="2324351" cy="279895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カスタマ開発</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65149</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="直接箭头连接符 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DDC543-0141-41D7-B068-E7DAA71289D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="2"/>
+          <a:endCxn id="204" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3095499" y="4152901"/>
+          <a:ext cx="8125" cy="831956"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57024</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="直接箭头连接符 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F79A8D0-7397-4474-868E-4A2297AC8D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="204" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3067050" y="5264752"/>
+          <a:ext cx="28449" cy="2221898"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>144908</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147478</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="228" name="直接箭头连接符 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DBF7AD-7170-445D-B178-A364660FE7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="0"/>
+          <a:endCxn id="138" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6783833" y="5255227"/>
+          <a:ext cx="26542" cy="2312226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1005403" cy="262764"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="文本框 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3F6B61-F8B4-4EC0-BBB1-B0FE9A51E9BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="4638675"/>
+          <a:ext cx="1005403" cy="262764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カスタマ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>必要場合</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="954107" cy="305212"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="文本框 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EB83D4-B4DE-40E3-BDF7-81F551BB6E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="3590925"/>
+          <a:ext cx="954107" cy="305212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カスタマ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不要</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei Light" panose="020B0502040204020203" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>167091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="314" name="图片 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2044D5-7579-4992-A913-4CE34C7F0BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581026" y="13201650"/>
+          <a:ext cx="8553450" cy="5291541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7645,15 +14021,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
@@ -7668,16 +14044,16 @@
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7694,8 +14070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:BG120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7706,14 +14082,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:59" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:59" ht="21" x14ac:dyDescent="0.15">
-      <c r="B4" s="18" t="s">
-        <v>57</v>
+      <c r="B4" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -7775,7 +14151,7 @@
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7837,7 +14213,7 @@
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -7899,12 +14275,12 @@
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -7963,13 +14339,13 @@
     </row>
     <row r="8" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -8026,8 +14402,8 @@
       <c r="BG8" s="4"/>
     </row>
     <row r="9" spans="2:59" ht="21" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>65</v>
+      <c r="B9" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="4"/>
@@ -8089,7 +14465,7 @@
     </row>
     <row r="10" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8151,13 +14527,13 @@
     </row>
     <row r="11" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -8215,13 +14591,13 @@
     </row>
     <row r="12" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -8278,8 +14654,8 @@
       <c r="BG12" s="4"/>
     </row>
     <row r="13" spans="2:59" ht="21" x14ac:dyDescent="0.15">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
+      <c r="B13" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -8341,7 +14717,7 @@
     </row>
     <row r="14" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -8403,13 +14779,13 @@
     </row>
     <row r="15" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -8467,7 +14843,7 @@
     </row>
     <row r="16" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -8476,7 +14852,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -8590,14 +14966,14 @@
       <c r="BG17" s="4"/>
     </row>
     <row r="18" spans="2:59" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="15"/>
+      <c r="B18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:59" x14ac:dyDescent="0.15">
@@ -8605,12 +14981,12 @@
     </row>
     <row r="21" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:59" x14ac:dyDescent="0.15">
@@ -8618,17 +14994,17 @@
     </row>
     <row r="24" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:59" x14ac:dyDescent="0.15">
@@ -8636,55 +15012,55 @@
     </row>
     <row r="28" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B28" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="15"/>
+      <c r="B33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D54" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C83" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C84" s="4"/>
       <c r="D84" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C85" s="4"/>
       <c r="D85" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
@@ -8692,19 +15068,19 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C87" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C88" s="4"/>
       <c r="D88" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C89" s="4"/>
       <c r="D89" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.15">
@@ -8713,38 +15089,38 @@
     <row r="91" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D92" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D93" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D94" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B96" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="15"/>
+      <c r="B96" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="13"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C97" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C98" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
@@ -8752,7 +15128,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
@@ -8760,7 +15136,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -8768,18 +15144,18 @@
         <v>3</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D102" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C103" s="4"/>
       <c r="D103" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
@@ -8815,100 +15191,413 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105FDF0-2BE1-416B-9BBA-13B30D11A358}">
-  <dimension ref="B5:DG115"/>
+  <dimension ref="B5:DG156"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="7"/>
+    <col min="1" max="4" width="2.625" style="7"/>
+    <col min="5" max="5" width="2.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:18" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="E5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
     </row>
-    <row r="44" spans="4:111" x14ac:dyDescent="0.15">
-      <c r="DG44"/>
-    </row>
-    <row r="47" spans="4:111" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="D47" s="16" t="s">
+    <row r="28" spans="4:111" x14ac:dyDescent="0.15">
+      <c r="DG28"/>
+    </row>
+    <row r="31" spans="4:111" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="W36" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="W37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="X38" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="W39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="X40" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="C41" s="9"/>
+      <c r="W41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="X42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="X43" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="C44" s="9"/>
+      <c r="X44" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.15">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="49" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AH49" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="C50" s="9"/>
+      <c r="AH50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI50" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AI51" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D49" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D50" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="O51"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C57" s="9"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C60" s="9"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C63" s="9"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C66" s="9"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D77" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="M79"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D114" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D115" s="7" t="s">
-        <v>34</v>
+    </row>
+    <row r="52" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AH52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI52" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AI53" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AH54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI54" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AI55" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AI56" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AI57" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="3:35" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D63" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+    </row>
+    <row r="83" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="E83" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F84" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F85" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="E87" s="7">
+        <v>1</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F88" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V88"/>
+    </row>
+    <row r="89" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F89" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F90" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F91" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F92" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F93" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="E95" s="7">
+        <v>2</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="F96" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F97" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F98" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F99" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F100" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E106" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F107" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E108" s="7">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E112" s="7">
+        <v>2</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E117" s="7">
+        <v>3</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E121" s="7">
+        <v>4</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E125" s="7">
+        <v>5</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E129" s="7">
+        <v>6</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D140" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="21"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+    </row>
+    <row r="142" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D142" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E143" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D145" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E146" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D148" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D149" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D154" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+    </row>
+    <row r="156" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D156" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8920,169 +15609,510 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0EFE6F-C5A0-4882-828A-DB36F9F62263}">
-  <dimension ref="B2:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C8743-BC69-48B9-9253-53C633FB9F37}">
+  <dimension ref="B5:AF103"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.625" style="7"/>
+    <col min="4" max="5" width="2.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:18" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="E5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="29" spans="4:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D30" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D31" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="E33" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="E35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="W36" s="17"/>
+    </row>
+    <row r="37" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="E37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W37" s="17"/>
+    </row>
+    <row r="38" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="D38" s="7">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="40" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="4:32" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D41" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="44" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="AF44" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="AF45" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="AF46" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D62" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D89" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+    </row>
+    <row r="91" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D91" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E92" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D94" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E95" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D97" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D98" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D101" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+    </row>
+    <row r="103" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D103" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC06E13-7B73-46A2-B06A-DD620359EFA5}">
+  <dimension ref="D5:AX131"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BA17" sqref="BA17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.625" style="7"/>
+    <col min="4" max="5" width="2.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="57" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D57" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D58" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D61" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="65" spans="50:50" x14ac:dyDescent="0.15">
+      <c r="AX65" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E90" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F91" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F92" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F93" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F94" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F95" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F96" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F97" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F98" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F99" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F100" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F101" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F102" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F103" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F104" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F105" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F106" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F107" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E109" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F110" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F111" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+    </row>
+    <row r="117" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D117" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+    </row>
+    <row r="119" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D119" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E120" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D122" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E123" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D125" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D126" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D129" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+    </row>
+    <row r="131" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D131" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEE77F-1475-4B0D-BF55-F5CC92154266}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB53" sqref="AB53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
+++ b/DevOpsプラットフォーム/プラットフォームの方針-作成資料.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinni\Desktop\bag\DevOpsプラットフォーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Product\bag\DevOpsプラットフォーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B33D85-1E81-41CD-9FFD-0B59FC9C702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="前期讨论" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="DevOps" sheetId="7" r:id="rId5"/>
     <sheet name="推进进度计划" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="194">
   <si>
     <r>
       <t>DevOps的</t>
@@ -46,7 +45,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -57,7 +56,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -612,81 +611,360 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>持续开发与集成所采用的工具基本与DevOps工具相同。</t>
+  </si>
+  <si>
+    <t>规则引擎平台中包含的子平台在【INNORULE平台的概念】中描述</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>明补充</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上，个人感觉推进成本可控、产生的效益值得期待，建议可以推进。此工具更适合在目前公司的NRI项目上运用。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上，个人感觉推进成本比较高，但是产生的效益比较明显。更适合实现公司提出的更高的目标。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI/CD的目前进展</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚未推进</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷开发的目前进展</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计、技术验证</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps的目前进展</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型开发完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础工具同【持续开发与集成】的工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像仓库：私服nexus。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理：ELK。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>計画完了</t>
+    <rPh sb="0" eb="2">
+      <t>ｹｲｶｸ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｶﾝﾘｮｳ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>INNORULE平台的概念流程</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>持续开发与集成所采用的工具基本与DevOps工具相同。</t>
-  </si>
-  <si>
-    <t>规则引擎平台中包含的子平台在【INNORULE平台的概念】中描述</t>
+    <t>INNORULE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>明补充</t>
+    <t>主担当</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>如上，个人感觉推进成本可控、产生的效益值得期待，建议可以推进。此工具更适合在目前公司的NRI项目上运用。</t>
+    <t>周</t>
+    <rPh sb="0" eb="1">
+      <t>ｼｭｳ</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>如上，个人感觉推进成本比较高，但是产生的效益比较明显。更适合实现公司提出的更高的目标。</t>
+    <t>アジャイルツール</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CI/CD的目前进展</t>
+    <t>CICD構築</t>
+    <rPh sb="4" eb="6">
+      <t>ｺｳﾁｸ</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>尚未推进</t>
+    <t>CICD構築設計・検討</t>
+    <rPh sb="6" eb="8">
+      <t>ｾｯｹｲ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ｹﾝﾄｳ</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>敏捷开发的目前进展</t>
+    <t>作業分類/モジュ一ル</t>
+    <rPh sb="0" eb="2">
+      <t>ｻｷﾞｮｳ</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>原型设计、技术验证</t>
+    <t>目標/説明</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DevOps的目前进展</t>
+    <t>demo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>原型开发完成</t>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳﾀｲ</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>基础工具同【持续开发与集成】的工具</t>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>ｶﾝﾘｮｳ</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>镜像仓库：私服nexus。</t>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>ｷﾉｳ</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>日志管理：ELK。</t>
+    <t>詳細設計用開発語言の設計と開発</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳｻｲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｾｯｹｲ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ﾖｳ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ｶｲﾊﾂ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｺﾞｹﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>インプットとエクスポート</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>データ設計</t>
+    <rPh sb="3" eb="5">
+      <t>ｾｯｹｲ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面機能</t>
+    <rPh sb="0" eb="2">
+      <t>ｶﾞﾒﾝ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｷﾉｳ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monacoEditor利用できるの新設計語言</t>
+    <rPh sb="12" eb="14">
+      <t>ﾘﾖｳ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ｼﾝ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ｾｯｹｲ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ｺﾞｹﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証</t>
+    <rPh sb="0" eb="2">
+      <t>ｹﾝｼｮｳ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0版</t>
+    <rPh sb="3" eb="4">
+      <t>ﾊﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX項目を検証して、機能適用・使用便利になる</t>
+    <rPh sb="3" eb="5">
+      <t>ｺｳﾓｸ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｹﾝｼｮｳ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ｷﾉｳ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ﾃｷﾖｳ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ｼﾖｳ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ﾍﾞﾝﾘ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ﾘﾍﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>ｶｲｼ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証版</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>ｺｳｽｳ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー・権限など</t>
+    <rPh sb="5" eb="7">
+      <t>ｹﾝｹﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>バージョン管理</t>
+    <rPh sb="5" eb="7">
+      <t>ｶﾝﾘ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>サービス用コンポーネント確認</t>
+    <rPh sb="4" eb="5">
+      <t>ﾖｳ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ｶｸﾆﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪・周</t>
+    <rPh sb="0" eb="1">
+      <t>ｹﾞｲ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX項目のベースで設計する</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証版
+(機能確認用設計ツールの検証版)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>機能できるかの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ｷﾉｳ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｶｸﾆﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>機能設計</t>
+    <rPh sb="0" eb="2">
+      <t>ｷﾉｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｾｯｹｲ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面機能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0版</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>サーバ構築</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -694,7 +972,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -702,7 +980,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -710,7 +988,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -746,7 +1024,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -776,7 +1054,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -812,6 +1090,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -827,12 +1113,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -844,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,22 +1237,70 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -949,7 +1335,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2128FB-E7F9-4058-A9B8-0C0E984496EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2128FB-E7F9-4058-A9B8-0C0E984496EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,7 +1374,7 @@
         <xdr:cNvPr id="10" name="文本框 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EAC6ED-E63E-461A-97CD-4EA9A506AF81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73EAC6ED-E63E-461A-97CD-4EA9A506AF81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1521,7 @@
         <xdr:cNvPr id="11" name="文本框 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEF862E-A4FA-4458-A500-7ACCB0288DD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EEF862E-A4FA-4458-A500-7ACCB0288DD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1670,7 @@
         <xdr:cNvPr id="15" name="文本框 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECCE4D4-6A1B-4DBC-80C4-8E43B8014BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ECCE4D4-6A1B-4DBC-80C4-8E43B8014BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1877,7 @@
         <xdr:cNvPr id="16" name="文本框 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AC1E0B-2449-4534-BD83-79CCF4CB1738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7AC1E0B-2449-4534-BD83-79CCF4CB1738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +2046,7 @@
         <xdr:cNvPr id="17" name="文本框 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C320C049-C6DA-4487-BEA7-1F4A17AB2528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C320C049-C6DA-4487-BEA7-1F4A17AB2528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +2202,7 @@
         <xdr:cNvPr id="13" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E882D3F-6325-4999-A164-DFCBECB120D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E882D3F-6325-4999-A164-DFCBECB120D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +2274,7 @@
         <xdr:cNvPr id="18" name="矩形: 圆角 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44C43F0-1D9C-44C9-9E7C-8B2369A6BEB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F44C43F0-1D9C-44C9-9E7C-8B2369A6BEB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2390,7 @@
         <xdr:cNvPr id="20" name="矩形: 圆角 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB4AFB0-F78A-4498-BB45-A7D3239346B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DB4AFB0-F78A-4498-BB45-A7D3239346B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2506,7 @@
         <xdr:cNvPr id="21" name="矩形: 圆角 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3E95B2-5970-4F68-BF60-88A806EE9767}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E3E95B2-5970-4F68-BF60-88A806EE9767}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2612,7 @@
         <xdr:cNvPr id="22" name="矩形: 圆角 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27D73A0-4F84-44A8-9646-80E7EC93285B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F27D73A0-4F84-44A8-9646-80E7EC93285B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2718,7 @@
         <xdr:cNvPr id="23" name="矩形: 圆角 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5EAD73-0C40-48B3-96AC-05C429A99BA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B5EAD73-0C40-48B3-96AC-05C429A99BA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2824,7 @@
         <xdr:cNvPr id="62" name="组合 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1980EDBD-5B2F-4138-9305-1CA0F87D2C53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1980EDBD-5B2F-4138-9305-1CA0F87D2C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2843,7 @@
           <xdr:cNvPr id="27" name="文本框 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70D9107-DE38-4B8E-80EC-5F3E7BDA09B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D70D9107-DE38-4B8E-80EC-5F3E7BDA09B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2514,7 +2900,7 @@
           <xdr:cNvPr id="50" name="等腰三角形 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626C7AE9-4EC4-4A55-B30F-DCA12A5DF20E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{626C7AE9-4EC4-4A55-B30F-DCA12A5DF20E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2571,7 +2957,7 @@
           <xdr:cNvPr id="52" name="连接符: 肘形 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA716765-0F93-4C89-9DC9-7DE1F016B7E7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA716765-0F93-4C89-9DC9-7DE1F016B7E7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2616,7 +3002,7 @@
           <xdr:cNvPr id="87" name="连接符: 肘形 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE779EFE-F9BC-4EE3-952F-EE0B43FFC44B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE779EFE-F9BC-4EE3-952F-EE0B43FFC44B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2661,7 +3047,7 @@
           <xdr:cNvPr id="90" name="等腰三角形 89">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F93383-88CE-44D9-A9B0-17AEB0579EEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0F93383-88CE-44D9-A9B0-17AEB0579EEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2734,7 +3120,7 @@
         <xdr:cNvPr id="102" name="组合 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F82E69-ACA3-4663-BA11-B11629F760C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43F82E69-ACA3-4663-BA11-B11629F760C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +3139,7 @@
           <xdr:cNvPr id="103" name="文本框 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166C1811-D3D1-4FEA-8BD5-258F89FAAE9B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{166C1811-D3D1-4FEA-8BD5-258F89FAAE9B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2810,7 +3196,7 @@
           <xdr:cNvPr id="104" name="等腰三角形 103">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8CE18D-141C-4827-86A0-B108635B76F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C8CE18D-141C-4827-86A0-B108635B76F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2867,7 +3253,7 @@
           <xdr:cNvPr id="105" name="连接符: 肘形 104">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BD69A8-100B-41DA-904F-585419681D9C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5BD69A8-100B-41DA-904F-585419681D9C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2912,7 +3298,7 @@
           <xdr:cNvPr id="106" name="连接符: 肘形 105">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A16668-492C-40A0-8E9B-00AA157DB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14A16668-492C-40A0-8E9B-00AA157DB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2957,7 +3343,7 @@
           <xdr:cNvPr id="107" name="等腰三角形 106">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B044D1-71AE-408C-B10E-64099A559BB1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66B044D1-71AE-408C-B10E-64099A559BB1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3030,7 +3416,7 @@
         <xdr:cNvPr id="116" name="组合 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E5F9E9-5875-4997-A93B-FCD54AC4A3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E5F9E9-5875-4997-A93B-FCD54AC4A3E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3049,7 +3435,7 @@
           <xdr:cNvPr id="117" name="文本框 116">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D067AD3-7C83-40DF-ADFC-0991B273DC37}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D067AD3-7C83-40DF-ADFC-0991B273DC37}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3127,7 +3513,7 @@
           <xdr:cNvPr id="118" name="等腰三角形 117">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E3C841-B64D-437B-A84E-043595DB7162}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05E3C841-B64D-437B-A84E-043595DB7162}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3184,7 +3570,7 @@
           <xdr:cNvPr id="119" name="连接符: 肘形 118">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D988FF4-D5CF-41AF-BD5D-E67B8108FA9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D988FF4-D5CF-41AF-BD5D-E67B8108FA9A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3229,7 +3615,7 @@
           <xdr:cNvPr id="120" name="连接符: 肘形 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5882608E-7A5B-46E3-8F56-85D948097861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5882608E-7A5B-46E3-8F56-85D948097861}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3274,7 +3660,7 @@
           <xdr:cNvPr id="121" name="等腰三角形 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3AB199-A796-4349-9AD9-82415C4D4E51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D3AB199-A796-4349-9AD9-82415C4D4E51}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3347,7 +3733,7 @@
         <xdr:cNvPr id="124" name="组合 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313DE584-3466-43AE-9568-FF71CC3F5DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{313DE584-3466-43AE-9568-FF71CC3F5DA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3752,7 @@
           <xdr:cNvPr id="125" name="文本框 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8441FB2-4973-4337-8B54-3AB4CF2DDA71}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8441FB2-4973-4337-8B54-3AB4CF2DDA71}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3431,7 +3817,7 @@
           <xdr:cNvPr id="126" name="等腰三角形 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07432881-3C79-4F8F-BCAD-C02071CC08B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07432881-3C79-4F8F-BCAD-C02071CC08B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3490,7 +3876,7 @@
           <xdr:cNvPr id="127" name="连接符: 肘形 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B8CD72-7AA6-48D0-A846-53D319D86C39}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19B8CD72-7AA6-48D0-A846-53D319D86C39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3533,7 +3919,7 @@
           <xdr:cNvPr id="128" name="连接符: 肘形 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E59E138-E97D-44FC-AF87-7DF99683A6E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E59E138-E97D-44FC-AF87-7DF99683A6E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3576,7 +3962,7 @@
           <xdr:cNvPr id="129" name="等腰三角形 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CCC6A0-F9E5-4D5D-AE8E-5DEC2153B718}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3CCC6A0-F9E5-4D5D-AE8E-5DEC2153B718}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3651,7 +4037,7 @@
         <xdr:cNvPr id="138" name="组合 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE90ECD-5B20-496E-AAAC-373BB449BEC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE90ECD-5B20-496E-AAAC-373BB449BEC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3670,7 +4056,7 @@
           <xdr:cNvPr id="139" name="文本框 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3E2E57-8D0A-4C75-A21E-F5E374F39880}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE3E2E57-8D0A-4C75-A21E-F5E374F39880}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3745,7 +4131,7 @@
           <xdr:cNvPr id="140" name="等腰三角形 139">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CE7FE3-276D-4FEF-BDA2-C2BE5C58CF60}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CE7FE3-276D-4FEF-BDA2-C2BE5C58CF60}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3804,7 +4190,7 @@
           <xdr:cNvPr id="141" name="连接符: 肘形 140">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C54EDCB-6B28-4398-8D0C-2F6C7DE30B0C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C54EDCB-6B28-4398-8D0C-2F6C7DE30B0C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3847,7 +4233,7 @@
           <xdr:cNvPr id="142" name="连接符: 肘形 141">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E956E5DE-5C91-4DB8-8728-E5B9CD9C91AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E956E5DE-5C91-4DB8-8728-E5B9CD9C91AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3890,7 +4276,7 @@
           <xdr:cNvPr id="143" name="等腰三角形 142">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CF050C-6569-4FFD-AFD2-A38B45C17494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13CF050C-6569-4FFD-AFD2-A38B45C17494}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3965,7 +4351,7 @@
         <xdr:cNvPr id="152" name="组合 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8E71B2-FE2B-4A53-98CD-35F35F57BC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D8E71B2-FE2B-4A53-98CD-35F35F57BC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +4370,7 @@
           <xdr:cNvPr id="153" name="文本框 152">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814599E1-1874-42A8-8F75-3141588D91F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{814599E1-1874-42A8-8F75-3141588D91F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4059,7 +4445,7 @@
           <xdr:cNvPr id="154" name="等腰三角形 153">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1537E2-2F86-484F-9188-27C37298EEA4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B1537E2-2F86-484F-9188-27C37298EEA4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4118,7 +4504,7 @@
           <xdr:cNvPr id="155" name="连接符: 肘形 154">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D797CF59-A4AC-4D8B-848D-5313D24FAED4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D797CF59-A4AC-4D8B-848D-5313D24FAED4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4162,7 +4548,7 @@
           <xdr:cNvPr id="156" name="连接符: 肘形 155">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847F1DB9-1436-4089-BBBE-063755DDBCB7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{847F1DB9-1436-4089-BBBE-063755DDBCB7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4206,7 +4592,7 @@
           <xdr:cNvPr id="157" name="等腰三角形 156">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23393A9-CA85-42CF-9DFD-516A8D0FB95B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A23393A9-CA85-42CF-9DFD-516A8D0FB95B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4281,7 +4667,7 @@
         <xdr:cNvPr id="53" name="组合 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DF8EB9-B76C-4C2E-B330-A7A168CDB6F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09DF8EB9-B76C-4C2E-B330-A7A168CDB6F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4300,7 +4686,7 @@
           <xdr:cNvPr id="54" name="文本框 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AE3548-5172-4A62-9F73-1678EF1B51AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51AE3548-5172-4A62-9F73-1678EF1B51AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4378,7 +4764,7 @@
           <xdr:cNvPr id="55" name="等腰三角形 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB8E79E-4FEF-44FE-A74A-EF5889570B13}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DB8E79E-4FEF-44FE-A74A-EF5889570B13}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4435,7 +4821,7 @@
           <xdr:cNvPr id="56" name="连接符: 肘形 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4494EC6-9EA6-40E3-9B2A-1E3AB3C30308}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4494EC6-9EA6-40E3-9B2A-1E3AB3C30308}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4481,7 +4867,7 @@
           <xdr:cNvPr id="57" name="连接符: 肘形 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E804161-E989-4319-8F6C-9716C0863779}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E804161-E989-4319-8F6C-9716C0863779}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4527,7 +4913,7 @@
           <xdr:cNvPr id="58" name="等腰三角形 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B18A221-15D6-42F0-9660-A32297A38564}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B18A221-15D6-42F0-9660-A32297A38564}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4600,7 +4986,7 @@
         <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008CE903-5BB1-46EE-B536-0E550C1E53AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{008CE903-5BB1-46EE-B536-0E550C1E53AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4644,7 +5030,7 @@
         <xdr:cNvPr id="59" name="组合 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C1B435-1DA0-43A1-8758-D1D02F6EF4C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6C1B435-1DA0-43A1-8758-D1D02F6EF4C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4663,7 +5049,7 @@
           <xdr:cNvPr id="60" name="文本框 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1008D17B-31B3-4EFE-BBFE-046C2947DC1B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1008D17B-31B3-4EFE-BBFE-046C2947DC1B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4720,7 +5106,7 @@
           <xdr:cNvPr id="61" name="等腰三角形 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D4A804-BCF0-4C6F-A7C6-F9F7ABF3DFF7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D4A804-BCF0-4C6F-A7C6-F9F7ABF3DFF7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4777,7 +5163,7 @@
           <xdr:cNvPr id="63" name="连接符: 肘形 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A01A7FC-5D62-4F96-98CF-CB7D03FBC39E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A01A7FC-5D62-4F96-98CF-CB7D03FBC39E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4822,7 +5208,7 @@
           <xdr:cNvPr id="64" name="连接符: 肘形 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87A98CC-C1A0-4D3A-B4F1-10CCF051F496}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B87A98CC-C1A0-4D3A-B4F1-10CCF051F496}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4867,7 +5253,7 @@
           <xdr:cNvPr id="65" name="等腰三角形 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDFB3B5-FACF-4D17-A1E8-0139DCAA32E8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFDFB3B5-FACF-4D17-A1E8-0139DCAA32E8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4940,7 +5326,7 @@
         <xdr:cNvPr id="66" name="组合 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAD23C9-F61A-4569-8E8C-825327958D9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CAD23C9-F61A-4569-8E8C-825327958D9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4959,7 +5345,7 @@
           <xdr:cNvPr id="67" name="文本框 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180C8B4C-C7B2-4AE3-9E75-5B737A83B20E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{180C8B4C-C7B2-4AE3-9E75-5B737A83B20E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5016,7 +5402,7 @@
           <xdr:cNvPr id="68" name="等腰三角形 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D537D7F-96F9-42CB-B6BE-CD917F9AE093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D537D7F-96F9-42CB-B6BE-CD917F9AE093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5073,7 +5459,7 @@
           <xdr:cNvPr id="69" name="连接符: 肘形 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197A8673-781F-402A-B9B0-7397698023AE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{197A8673-781F-402A-B9B0-7397698023AE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5118,7 +5504,7 @@
           <xdr:cNvPr id="70" name="连接符: 肘形 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D79538-0273-4424-831F-5A159A1592DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2D79538-0273-4424-831F-5A159A1592DC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5163,7 +5549,7 @@
           <xdr:cNvPr id="71" name="等腰三角形 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B641555E-6820-42D7-B154-AE37AD2C1776}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B641555E-6820-42D7-B154-AE37AD2C1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5236,7 +5622,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F568CA46-5922-45F7-85B7-D86CEA04D20A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F568CA46-5922-45F7-85B7-D86CEA04D20A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5303,7 +5689,7 @@
         <xdr:cNvPr id="74" name="文本框 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BB97C5-77AB-4A5D-BEF5-984D4471C6B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49BB97C5-77AB-4A5D-BEF5-984D4471C6B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5395,7 +5781,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C16159D-C6E7-4ADA-BB95-FFD99C77DD88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C16159D-C6E7-4ADA-BB95-FFD99C77DD88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5469,7 +5855,7 @@
         <xdr:cNvPr id="48" name="矩形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D10D92-6C0B-4406-B74F-036939E4B5B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D10D92-6C0B-4406-B74F-036939E4B5B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5550,7 +5936,7 @@
         <xdr:cNvPr id="45" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB82DD68-4C03-4C93-850B-5746E7C83DB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB82DD68-4C03-4C93-850B-5746E7C83DB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5665,7 +6051,7 @@
         <xdr:cNvPr id="46" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE73987D-FD0C-4A81-B9F8-D7179A077B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE73987D-FD0C-4A81-B9F8-D7179A077B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5756,7 +6142,7 @@
         <xdr:cNvPr id="47" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B12D91A-6A1B-478C-8520-F66985957307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B12D91A-6A1B-478C-8520-F66985957307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5941,7 +6327,7 @@
         <xdr:cNvPr id="49" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2ACD970-70CF-4A4B-9367-27591B1363B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2ACD970-70CF-4A4B-9367-27591B1363B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6057,7 +6443,7 @@
         <xdr:cNvPr id="50" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C6A99A-D93B-44A2-86ED-9D05DAE04263}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62C6A99A-D93B-44A2-86ED-9D05DAE04263}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6173,7 +6559,7 @@
         <xdr:cNvPr id="51" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532A1145-1FF2-49DA-8948-735F688F5739}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{532A1145-1FF2-49DA-8948-735F688F5739}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6303,7 +6689,7 @@
         <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B362670A-4FF3-4A2C-AF90-26BF36219F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B362670A-4FF3-4A2C-AF90-26BF36219F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6373,7 +6759,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3242AB-DE6F-4C03-B22C-658E7A4458A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E3242AB-DE6F-4C03-B22C-658E7A4458A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6441,7 +6827,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A04D21-3A7A-40AB-8260-A9DA976B212C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82A04D21-3A7A-40AB-8260-A9DA976B212C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6509,7 +6895,7 @@
         <xdr:cNvPr id="41" name="直接箭头连接符 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75DD3D5-3D74-4598-9A02-CF7EC8E98DAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75DD3D5-3D74-4598-9A02-CF7EC8E98DAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6577,7 +6963,7 @@
         <xdr:cNvPr id="55" name="直接箭头连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C73E0ED-9C6A-4737-B0AE-CDA4471F0C30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C73E0ED-9C6A-4737-B0AE-CDA4471F0C30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6645,7 +7031,7 @@
         <xdr:cNvPr id="56" name="直接箭头连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2017EABD-917C-4A7A-8126-EB62E0EC193C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2017EABD-917C-4A7A-8126-EB62E0EC193C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6713,7 +7099,7 @@
         <xdr:cNvPr id="60" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACAA9A4-AA88-46CF-B8D3-183EC671F2A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2ACAA9A4-AA88-46CF-B8D3-183EC671F2A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6843,7 +7229,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD280C8-4716-4881-BE10-5C7153845EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DD280C8-4716-4881-BE10-5C7153845EB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6911,7 +7297,7 @@
         <xdr:cNvPr id="67" name="连接符: 肘形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2714DB6-A661-4D1F-91BB-6D057FC237F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2714DB6-A661-4D1F-91BB-6D057FC237F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6975,7 +7361,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED13D0E-0CEA-44CA-B7A6-D14631A5C8E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ED13D0E-0CEA-44CA-B7A6-D14631A5C8E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7108,7 +7494,7 @@
         <xdr:cNvPr id="57" name="文本框 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51408990-8E34-4A35-87AD-602195F5B65B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51408990-8E34-4A35-87AD-602195F5B65B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7203,7 +7589,7 @@
         <xdr:cNvPr id="58" name="文本框 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1E305C-C378-4321-B24A-CDE980A0B1F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E1E305C-C378-4321-B24A-CDE980A0B1F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7285,7 +7671,7 @@
         <xdr:cNvPr id="33" name="箭头: 上 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7580A27B-DC21-4D43-9344-C6701397F3B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7580A27B-DC21-4D43-9344-C6701397F3B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7345,7 +7731,7 @@
         <xdr:cNvPr id="34" name="箭头: 直角上 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54163D60-5DD0-4A6A-9576-34814B26BB87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54163D60-5DD0-4A6A-9576-34814B26BB87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7407,7 +7793,7 @@
         <xdr:cNvPr id="59" name="文本框 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D0E21-5257-446B-AFFA-31D13455B6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B5D0E21-5257-446B-AFFA-31D13455B6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7522,7 +7908,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BFBC3B-CCB2-446E-A30C-F1D21DFEFEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33BFBC3B-CCB2-446E-A30C-F1D21DFEFEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7592,7 +7978,7 @@
         <xdr:cNvPr id="71" name="图片 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24B9440-2590-4263-9455-A64B00F0FF47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B24B9440-2590-4263-9455-A64B00F0FF47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7636,7 +8022,7 @@
         <xdr:cNvPr id="72" name="图片 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0258E3F5-BE8E-48EE-9150-698C789F4BA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0258E3F5-BE8E-48EE-9150-698C789F4BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7680,7 +8066,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ACB403-A3BC-42C4-B351-D598CB82FD50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6ACB403-A3BC-42C4-B351-D598CB82FD50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7724,7 +8110,7 @@
         <xdr:cNvPr id="75" name="图片 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB36B066-A34C-4D08-90FE-B8107C0FEFE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB36B066-A34C-4D08-90FE-B8107C0FEFE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7768,7 +8154,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A07ACF-C6B9-4EA4-8ED5-78E38960917A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7A07ACF-C6B9-4EA4-8ED5-78E38960917A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7812,7 +8198,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8652B01B-BADB-4321-ABC0-C2BC5A067737}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8652B01B-BADB-4321-ABC0-C2BC5A067737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7856,7 +8242,7 @@
         <xdr:cNvPr id="78" name="图片 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E71EEE3-12ED-4CE5-BBAE-4EB462F7E3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E71EEE3-12ED-4CE5-BBAE-4EB462F7E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7900,7 +8286,7 @@
         <xdr:cNvPr id="79" name="图片 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CBD76A-9474-48DA-A600-E10214E631CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55CBD76A-9474-48DA-A600-E10214E631CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7944,7 +8330,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D96211-90D5-435A-8FC4-8AA4A7FBAC85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70D96211-90D5-435A-8FC4-8AA4A7FBAC85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7988,7 +8374,7 @@
         <xdr:cNvPr id="81" name="图片 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79688D40-77DC-4535-94DA-C7EB7D4FD3EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79688D40-77DC-4535-94DA-C7EB7D4FD3EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8032,7 +8418,7 @@
         <xdr:cNvPr id="82" name="图片 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436DC2F6-6DF1-44C9-A2E2-88633C3EAFCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{436DC2F6-6DF1-44C9-A2E2-88633C3EAFCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8076,7 +8462,7 @@
         <xdr:cNvPr id="83" name="图片 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2B3A08-8205-43F7-809D-36CDEB8F6D17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA2B3A08-8205-43F7-809D-36CDEB8F6D17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8125,7 +8511,7 @@
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3460CB8-0D16-4A00-8332-1FBBB7055E92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3460CB8-0D16-4A00-8332-1FBBB7055E92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8199,7 +8585,7 @@
         <xdr:cNvPr id="41" name="矩形 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313A5480-BBCF-43F5-9958-04C6716E0A7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{313A5480-BBCF-43F5-9958-04C6716E0A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8285,7 +8671,7 @@
         <xdr:cNvPr id="3" name="矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4034228-0433-4429-ACAC-929587A49ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4034228-0433-4429-ACAC-929587A49ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8366,7 +8752,7 @@
         <xdr:cNvPr id="4" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604F7063-A508-440C-838C-1A7FEE9141C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{604F7063-A508-440C-838C-1A7FEE9141C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8481,7 +8867,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCCAB90-8FCE-41C3-8C58-F7BBA8AEDC9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CCCAB90-8FCE-41C3-8C58-F7BBA8AEDC9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8572,7 +8958,7 @@
         <xdr:cNvPr id="6" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7570DB-808F-4021-8D1C-EEF88A8EA3FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB7570DB-808F-4021-8D1C-EEF88A8EA3FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8757,7 +9143,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2884052-16B6-44D7-89E2-DA86717C1EA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2884052-16B6-44D7-89E2-DA86717C1EA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8873,7 +9259,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7F6E51-94E9-46F7-A6C1-AABABB8DB3FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD7F6E51-94E9-46F7-A6C1-AABABB8DB3FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8989,7 +9375,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F1FEE6-2793-49E8-BDBD-7773E696FC49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56F1FEE6-2793-49E8-BDBD-7773E696FC49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9119,7 +9505,7 @@
         <xdr:cNvPr id="11" name="直接箭头连接符 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB76552-4C9F-4934-8E0E-48154571E585}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFB76552-4C9F-4934-8E0E-48154571E585}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9187,7 +9573,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3F994F-2041-4D3A-96DB-5F1928C4AC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A3F994F-2041-4D3A-96DB-5F1928C4AC58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9255,7 +9641,7 @@
         <xdr:cNvPr id="13" name="直接箭头连接符 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76756C1B-9D14-46B9-B15A-F1CCEB939FC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76756C1B-9D14-46B9-B15A-F1CCEB939FC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9323,7 +9709,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B52FAF3-AAA0-493D-97EE-B3C0057B4BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B52FAF3-AAA0-493D-97EE-B3C0057B4BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9391,7 +9777,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F712D037-AAC5-486F-B4E2-5CE63DADA756}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F712D037-AAC5-486F-B4E2-5CE63DADA756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9459,7 +9845,7 @@
         <xdr:cNvPr id="16" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC7E0B2-2D57-4DD3-9CD1-BE0C3B1583C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC7E0B2-2D57-4DD3-9CD1-BE0C3B1583C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9589,7 +9975,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2534DFA-C0D4-4031-B931-DF5120B5DACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2534DFA-C0D4-4031-B931-DF5120B5DACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9657,7 +10043,7 @@
         <xdr:cNvPr id="18" name="连接符: 肘形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C648BA8-E169-48D1-A9D1-9ED87978A071}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C648BA8-E169-48D1-A9D1-9ED87978A071}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9721,7 +10107,7 @@
         <xdr:cNvPr id="19" name="文本框 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF366B8-9452-46EA-BD05-AB01BB839F5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CF366B8-9452-46EA-BD05-AB01BB839F5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9854,7 +10240,7 @@
         <xdr:cNvPr id="20" name="文本框 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B765880-EA86-4A7E-827C-E656F15C38EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B765880-EA86-4A7E-827C-E656F15C38EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9939,7 +10325,7 @@
         <xdr:cNvPr id="21" name="文本框 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1072C6D5-3F10-4C8D-BF16-2C53F42508E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1072C6D5-3F10-4C8D-BF16-2C53F42508E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10021,7 +10407,7 @@
         <xdr:cNvPr id="22" name="箭头: 上 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708303D3-393D-4BC0-9CF2-F49876F9CF9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{708303D3-393D-4BC0-9CF2-F49876F9CF9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10081,7 +10467,7 @@
         <xdr:cNvPr id="23" name="箭头: 直角上 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24A8937-8443-43F1-AD9D-EF53DFA33115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B24A8937-8443-43F1-AD9D-EF53DFA33115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10143,7 +10529,7 @@
         <xdr:cNvPr id="24" name="文本框 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B03467-1DE4-42F0-9429-78E173D94085}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32B03467-1DE4-42F0-9429-78E173D94085}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10235,7 +10621,7 @@
         <xdr:cNvPr id="50" name="文本框 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F6685E-08D7-4351-97AC-97F0BC35BD82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66F6685E-08D7-4351-97AC-97F0BC35BD82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10356,7 +10742,7 @@
         <xdr:cNvPr id="143" name="图片 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B05400-EE53-46EF-BEBD-BACB2CB4616E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25B05400-EE53-46EF-BEBD-BACB2CB4616E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10400,7 +10786,7 @@
         <xdr:cNvPr id="144" name="图片 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFDD346-5FDC-4710-8A59-3C1F8F2399C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CFDD346-5FDC-4710-8A59-3C1F8F2399C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10459,7 +10845,7 @@
         <xdr:cNvPr id="29" name="矩形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DE772F-F3F8-411E-A843-947624A19D6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33DE772F-F3F8-411E-A843-947624A19D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10545,7 +10931,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A018875-37D0-4B72-93F1-CB6331B4026B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A018875-37D0-4B72-93F1-CB6331B4026B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10626,7 +11012,7 @@
         <xdr:cNvPr id="31" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922225B4-7303-4BEB-A633-5B588FFA2125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{922225B4-7303-4BEB-A633-5B588FFA2125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10717,7 +11103,7 @@
         <xdr:cNvPr id="32" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCF3C7E-6978-47E3-9568-AAFFA3D9C894}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DCF3C7E-6978-47E3-9568-AAFFA3D9C894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10832,7 +11218,7 @@
         <xdr:cNvPr id="33" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A618317-2C02-40BF-94E7-6B5E100FB521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A618317-2C02-40BF-94E7-6B5E100FB521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10965,7 +11351,7 @@
         <xdr:cNvPr id="34" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5005F27-AC38-440D-AB90-4F4F916FC6D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5005F27-AC38-440D-AB90-4F4F916FC6D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11067,7 +11453,7 @@
         <xdr:cNvPr id="35" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626C6EFA-6C12-4D3E-BEF5-F98F502EA0BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{626C6EFA-6C12-4D3E-BEF5-F98F502EA0BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11169,7 +11555,7 @@
         <xdr:cNvPr id="37" name="直接箭头连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6879C285-7E4A-4612-BCE6-BDBB131D8BA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6879C285-7E4A-4612-BCE6-BDBB131D8BA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11237,7 +11623,7 @@
         <xdr:cNvPr id="38" name="直接箭头连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAFE39F-6C74-4A56-925D-9A437A86051E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BAFE39F-6C74-4A56-925D-9A437A86051E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11305,7 +11691,7 @@
         <xdr:cNvPr id="39" name="直接箭头连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502998DC-E012-4A95-91A6-225636981DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{502998DC-E012-4A95-91A6-225636981DB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11373,7 +11759,7 @@
         <xdr:cNvPr id="40" name="直接箭头连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDFADA4-7A91-42B3-979F-F1883CB3B8AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DDFADA4-7A91-42B3-979F-F1883CB3B8AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11441,7 +11827,7 @@
         <xdr:cNvPr id="42" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2315EC80-FE08-4E93-AAC7-17298B93D39B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2315EC80-FE08-4E93-AAC7-17298B93D39B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11543,7 +11929,7 @@
         <xdr:cNvPr id="43" name="直接箭头连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653E02D0-5878-4681-BC17-4B14990B2BC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{653E02D0-5878-4681-BC17-4B14990B2BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11606,7 +11992,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD6FD53-DE85-4121-B64B-3AC2430B421D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD6FD53-DE85-4121-B64B-3AC2430B421D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11746,7 +12132,7 @@
         <xdr:cNvPr id="129" name="文本框 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69167D90-5C50-4C47-B32C-F3DA70A4018B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69167D90-5C50-4C47-B32C-F3DA70A4018B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11846,7 +12232,7 @@
         <xdr:cNvPr id="130" name="矩形 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F284C9-8FC2-440E-9D5F-4F427BDFA9F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6F284C9-8FC2-440E-9D5F-4F427BDFA9F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11927,7 +12313,7 @@
         <xdr:cNvPr id="131" name="文本框 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9384EDE-1D08-4AAF-A173-D24DB8E4A8F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9384EDE-1D08-4AAF-A173-D24DB8E4A8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12057,7 +12443,7 @@
         <xdr:cNvPr id="133" name="矩形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6FC361-2702-4D7F-A172-56E0C9E6A17B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE6FC361-2702-4D7F-A172-56E0C9E6A17B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12143,7 +12529,7 @@
         <xdr:cNvPr id="135" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B7ACAA-517B-47B5-8040-210CA6746B6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9B7ACAA-517B-47B5-8040-210CA6746B6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12234,7 +12620,7 @@
         <xdr:cNvPr id="136" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68871A24-F505-479C-AFD4-A152E29F494C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68871A24-F505-479C-AFD4-A152E29F494C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12325,7 +12711,7 @@
         <xdr:cNvPr id="137" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D67EB32-90BC-43A5-BAA4-7C7B1A94131A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D67EB32-90BC-43A5-BAA4-7C7B1A94131A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12416,7 +12802,7 @@
         <xdr:cNvPr id="138" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95824D39-5B28-436F-947F-EB70F4AFDF60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95824D39-5B28-436F-947F-EB70F4AFDF60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12518,7 +12904,7 @@
         <xdr:cNvPr id="140" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E93845-8BBA-4B24-9039-C29059BF36ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E93845-8BBA-4B24-9039-C29059BF36ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12620,7 +13006,7 @@
         <xdr:cNvPr id="141" name="直接箭头连接符 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993FE57B-007A-4D29-8786-00057F919650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{993FE57B-007A-4D29-8786-00057F919650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12688,7 +13074,7 @@
         <xdr:cNvPr id="142" name="直接箭头连接符 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9F515F-359E-46F5-9254-CA19B47B3EA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D9F515F-359E-46F5-9254-CA19B47B3EA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12756,7 +13142,7 @@
         <xdr:cNvPr id="144" name="直接箭头连接符 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052E5927-DB48-449E-BBF1-7B7C90D7983A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{052E5927-DB48-449E-BBF1-7B7C90D7983A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12824,7 +13210,7 @@
         <xdr:cNvPr id="146" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F5BA1-8088-459F-A801-7B7ECDD30EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A88F5BA1-8088-459F-A801-7B7ECDD30EA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12915,7 +13301,7 @@
         <xdr:cNvPr id="147" name="直接箭头连接符 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F130D9D7-1FE6-4038-8444-9C5B1739E969}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F130D9D7-1FE6-4038-8444-9C5B1739E969}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12978,7 +13364,7 @@
         <xdr:cNvPr id="150" name="文本框 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B44204C-4A68-470E-9024-779CF81AA2FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B44204C-4A68-470E-9024-779CF81AA2FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13093,7 +13479,7 @@
         <xdr:cNvPr id="183" name="直接箭头连接符 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC7C42C-6FA4-497F-963D-343CCEA1BD8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CC7C42C-6FA4-497F-963D-343CCEA1BD8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13161,7 +13547,7 @@
         <xdr:cNvPr id="189" name="直接箭头连接符 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8756B9-18C1-4E1A-A523-761A50996BE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C8756B9-18C1-4E1A-A523-761A50996BE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13229,7 +13615,7 @@
         <xdr:cNvPr id="204" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE670E34-4819-4750-9A50-C4A645CC8E7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE670E34-4819-4750-9A50-C4A645CC8E7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13331,7 +13717,7 @@
         <xdr:cNvPr id="205" name="直接箭头连接符 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DDC543-0141-41D7-B068-E7DAA71289D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4DDC543-0141-41D7-B068-E7DAA71289D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13399,7 +13785,7 @@
         <xdr:cNvPr id="213" name="直接箭头连接符 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F79A8D0-7397-4474-868E-4A2297AC8D9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F79A8D0-7397-4474-868E-4A2297AC8D9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13467,7 +13853,7 @@
         <xdr:cNvPr id="228" name="直接箭头连接符 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DBF7AD-7170-445D-B178-A364660FE7B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3DBF7AD-7170-445D-B178-A364660FE7B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13530,7 +13916,7 @@
         <xdr:cNvPr id="241" name="文本框 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3F6B61-F8B4-4EC0-BBB1-B0FE9A51E9BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB3F6B61-F8B4-4EC0-BBB1-B0FE9A51E9BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13626,7 +14012,7 @@
         <xdr:cNvPr id="242" name="文本框 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EB83D4-B4DE-40E3-BDF7-81F551BB6E6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22EB83D4-B4DE-40E3-BDF7-81F551BB6E6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13727,7 +14113,7 @@
         <xdr:cNvPr id="314" name="图片 313">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2044D5-7579-4992-A913-4CE34C7F0BEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F2044D5-7579-4992-A913-4CE34C7F0BEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14018,42 +14404,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+    <row r="44" spans="2:8">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14067,27 +14453,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BG120"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="2.625" style="3"/>
     <col min="3" max="3" width="2.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:59" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:59" ht="24.75">
       <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:59" ht="21" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:59" ht="21">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -14149,7 +14535,7 @@
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
     </row>
-    <row r="5" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:59">
       <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
@@ -14211,7 +14597,7 @@
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
     </row>
-    <row r="6" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:59">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -14273,7 +14659,7 @@
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
     </row>
-    <row r="7" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:59">
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -14337,7 +14723,7 @@
       <c r="BF7" s="4"/>
       <c r="BG7" s="4"/>
     </row>
-    <row r="8" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:59">
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
@@ -14401,7 +14787,7 @@
       <c r="BF8" s="4"/>
       <c r="BG8" s="4"/>
     </row>
-    <row r="9" spans="2:59" ht="21" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:59" ht="21">
       <c r="B9" s="16" t="s">
         <v>53</v>
       </c>
@@ -14463,7 +14849,7 @@
       <c r="BF9" s="4"/>
       <c r="BG9" s="4"/>
     </row>
-    <row r="10" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:59">
       <c r="B10" s="7" t="s">
         <v>54</v>
       </c>
@@ -14525,7 +14911,7 @@
       <c r="BF10" s="4"/>
       <c r="BG10" s="4"/>
     </row>
-    <row r="11" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:59">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -14589,7 +14975,7 @@
       <c r="BF11" s="4"/>
       <c r="BG11" s="4"/>
     </row>
-    <row r="12" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:59">
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
@@ -14653,7 +15039,7 @@
       <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
     </row>
-    <row r="13" spans="2:59" ht="21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:59" ht="21">
       <c r="B13" s="16" t="s">
         <v>39</v>
       </c>
@@ -14715,7 +15101,7 @@
       <c r="BF13" s="4"/>
       <c r="BG13" s="4"/>
     </row>
-    <row r="14" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:59">
       <c r="B14" s="4" t="s">
         <v>55</v>
       </c>
@@ -14777,7 +15163,7 @@
       <c r="BF14" s="4"/>
       <c r="BG14" s="4"/>
     </row>
-    <row r="15" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:59">
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -14841,7 +15227,7 @@
       <c r="BF15" s="4"/>
       <c r="BG15" s="4"/>
     </row>
-    <row r="16" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:59">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -14905,7 +15291,7 @@
       <c r="BF16" s="4"/>
       <c r="BG16" s="4"/>
     </row>
-    <row r="17" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:59">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -14965,165 +15351,165 @@
       <c r="BF17" s="4"/>
       <c r="BG17" s="4"/>
     </row>
-    <row r="18" spans="2:59" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:59" ht="22.5">
       <c r="B18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:59">
       <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:59">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:59">
       <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:59">
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:59">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:59">
       <c r="B24" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:59">
       <c r="B25" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:59">
       <c r="B26" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:59">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:59">
       <c r="B28" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:59">
       <c r="B29" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:59" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:59">
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3" ht="22.5">
       <c r="B33" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3">
       <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:4">
       <c r="D54" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:4">
       <c r="C83" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:4">
       <c r="C84" s="4"/>
       <c r="D84" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:4">
       <c r="C85" s="4"/>
       <c r="D85" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:4">
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:4">
       <c r="C87" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:4">
       <c r="C88" s="4"/>
       <c r="D88" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:4">
       <c r="C89" s="4"/>
       <c r="D89" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:4">
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:4">
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:4">
       <c r="D92" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:4">
       <c r="D93" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:4">
       <c r="D94" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:4" ht="22.5">
       <c r="B96" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C96" s="13"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:4">
       <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:4">
       <c r="C98" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:4">
       <c r="C99" s="3">
         <v>1</v>
       </c>
@@ -15131,7 +15517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:4">
       <c r="C100" s="3">
         <v>2</v>
       </c>
@@ -15139,7 +15525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:4">
       <c r="C101" s="3">
         <v>3</v>
       </c>
@@ -15147,41 +15533,41 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:4">
       <c r="D102" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:4">
       <c r="C103" s="4"/>
       <c r="D103" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:4">
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:4">
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:4">
       <c r="C106" s="4"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:4">
       <c r="C111" s="4"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:2">
       <c r="B120" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{F8B9E99C-00A2-4D35-A5ED-547524BB86F0}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{D996C458-6C42-4193-9BB8-011F3B9BF991}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{B4D5268B-7263-4308-B3C3-834BE34E83D4}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{78BA9CE1-182E-4BC7-8E9A-DFB9715881A8}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{3F3E59EF-D8E4-4BB1-8AC2-05A0710233AC}"/>
-    <hyperlink ref="I16" r:id="rId6" xr:uid="{966B9D57-4542-4800-BFCF-5A00E05EC6E6}"/>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="I16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -15190,21 +15576,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105FDF0-2BE1-416B-9BBA-13B30D11A358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:DG156"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView showGridLines="0" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S155" sqref="S155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="2.625" style="7"/>
     <col min="5" max="5" width="2.875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:18" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18" ht="22.5">
       <c r="E5" s="14" t="s">
         <v>64</v>
       </c>
@@ -15222,13 +15608,13 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18">
       <c r="B7" s="8"/>
     </row>
-    <row r="28" spans="4:111" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:111">
       <c r="DG28"/>
     </row>
-    <row r="31" spans="4:111" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:111" ht="22.5">
       <c r="D31" s="14" t="s">
         <v>63</v>
       </c>
@@ -15241,20 +15627,20 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:24">
       <c r="D34" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:24">
       <c r="O35"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:24">
       <c r="W36" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:24">
       <c r="W37" s="7" t="s">
         <v>72</v>
       </c>
@@ -15262,12 +15648,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:24">
       <c r="X38" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:24">
       <c r="W39" s="7" t="s">
         <v>72</v>
       </c>
@@ -15275,12 +15661,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:24">
       <c r="X40" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:24">
       <c r="C41" s="9"/>
       <c r="W41" s="7" t="s">
         <v>72</v>
@@ -15289,31 +15675,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:24">
       <c r="X42" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:24">
       <c r="X43" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:24">
       <c r="C44" s="9"/>
       <c r="X44" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:24">
       <c r="C47" s="9"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:35">
       <c r="AH49" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:35">
       <c r="C50" s="9"/>
       <c r="AH50" s="7" t="s">
         <v>72</v>
@@ -15322,12 +15708,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:35">
       <c r="AI51" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:35">
       <c r="AH52" s="7" t="s">
         <v>72</v>
       </c>
@@ -15335,12 +15721,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="AI53" s="20" t="s">
+    <row r="53" spans="3:35">
+      <c r="AI53" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:35">
       <c r="AH54" s="7" t="s">
         <v>72</v>
       </c>
@@ -15348,25 +15734,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="AI55" s="20" t="s">
+    <row r="55" spans="3:35">
+      <c r="AI55" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="AI56" s="20" t="s">
+    <row r="56" spans="3:35">
+      <c r="AI56" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:35">
       <c r="AI57" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:35">
       <c r="D62"/>
     </row>
-    <row r="63" spans="3:35" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:35" ht="22.5">
       <c r="D63" s="14" t="s">
         <v>80</v>
       </c>
@@ -15378,28 +15764,28 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
-      <c r="M63" s="21"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="83" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:22">
       <c r="E83" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="5:22">
       <c r="F84" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="5:22">
       <c r="F85" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="5:22">
       <c r="E87" s="7">
         <v>1</v>
       </c>
@@ -15407,38 +15793,38 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="5:22">
       <c r="F88" s="9" t="s">
         <v>86</v>
       </c>
       <c r="V88"/>
     </row>
-    <row r="89" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="5:22">
       <c r="F89" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="5:22">
       <c r="F90" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="5:22">
       <c r="F91" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="5:22">
       <c r="F92" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="5:22">
       <c r="F93" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="5:22">
       <c r="E95" s="7">
         <v>2</v>
       </c>
@@ -15446,42 +15832,42 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="5:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="5:22">
       <c r="F96" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="5:6">
       <c r="F97" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:6">
       <c r="F98" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:6">
       <c r="F99" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:6">
       <c r="F100" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:6">
       <c r="E106" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="5:6">
       <c r="F107" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="5:6">
       <c r="E108" s="7">
         <v>1</v>
       </c>
@@ -15489,7 +15875,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="5:6">
       <c r="E112" s="7">
         <v>2</v>
       </c>
@@ -15497,7 +15883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="5:6">
       <c r="E117" s="7">
         <v>3</v>
       </c>
@@ -15505,7 +15891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="5:6">
       <c r="E121" s="7">
         <v>4</v>
       </c>
@@ -15513,7 +15899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="5:6">
       <c r="E125" s="7">
         <v>5</v>
       </c>
@@ -15521,7 +15907,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="129" spans="4:17">
       <c r="E129" s="7">
         <v>6</v>
       </c>
@@ -15529,7 +15915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="4:17" ht="22.5">
       <c r="D140" s="14" t="s">
         <v>105</v>
       </c>
@@ -15541,45 +15927,45 @@
       <c r="J140" s="11"/>
       <c r="K140" s="11"/>
       <c r="L140" s="11"/>
-      <c r="M140" s="21"/>
+      <c r="M140" s="19"/>
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
       <c r="Q140" s="11"/>
     </row>
-    <row r="142" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="142" spans="4:17">
       <c r="D142" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="143" spans="4:17">
       <c r="E143" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="145" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="145" spans="4:17">
       <c r="D145" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="146" spans="4:17">
       <c r="E146" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="148" spans="4:17">
       <c r="D148" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="149" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:17">
       <c r="D149" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="4:17" ht="22.5">
       <c r="D154" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
@@ -15589,15 +15975,15 @@
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
       <c r="L154" s="11"/>
-      <c r="M154" s="21"/>
+      <c r="M154" s="19"/>
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
     </row>
-    <row r="156" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:17">
       <c r="D156" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -15609,21 +15995,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C8743-BC69-48B9-9253-53C633FB9F37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:AF103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="2.625" style="7"/>
     <col min="4" max="5" width="2.875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:18" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18" ht="22.5">
       <c r="E5" s="14" t="s">
         <v>112</v>
       </c>
@@ -15641,10 +16027,10 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18">
       <c r="B7" s="8"/>
     </row>
-    <row r="29" spans="4:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:12" ht="22.5">
       <c r="D29" s="14" t="s">
         <v>113</v>
       </c>
@@ -15657,17 +16043,17 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:12">
       <c r="D30" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:12">
       <c r="D31" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:12">
       <c r="D32" s="7">
         <v>1</v>
       </c>
@@ -15675,12 +16061,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:32">
       <c r="E33" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:32">
       <c r="D34" s="7">
         <v>2</v>
       </c>
@@ -15689,13 +16075,13 @@
       </c>
       <c r="O34"/>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:32">
       <c r="E35" s="7" t="s">
         <v>121</v>
       </c>
       <c r="O35"/>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:32">
       <c r="D36" s="7">
         <v>3</v>
       </c>
@@ -15704,13 +16090,13 @@
       </c>
       <c r="W36" s="17"/>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:32">
       <c r="E37" s="7" t="s">
         <v>122</v>
       </c>
       <c r="W37" s="17"/>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:32">
       <c r="D38" s="7">
         <v>4</v>
       </c>
@@ -15719,10 +16105,10 @@
       </c>
       <c r="X38" s="9"/>
     </row>
-    <row r="40" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:32">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:32" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:32" ht="22.5">
       <c r="D41" s="14" t="s">
         <v>123</v>
       </c>
@@ -15734,33 +16120,33 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="21"/>
+      <c r="M41" s="19"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="44" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:32">
       <c r="AF44" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:32">
       <c r="AF45" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:32">
       <c r="AF46" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:4">
       <c r="D62" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:17" ht="22.5">
       <c r="D89" s="14" t="s">
         <v>128</v>
       </c>
@@ -15772,45 +16158,45 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
-      <c r="M89" s="21"/>
+      <c r="M89" s="19"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
     </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:17">
       <c r="D91" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:17">
       <c r="E92" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="94" spans="4:17">
       <c r="D94" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="95" spans="4:17">
       <c r="E95" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="97" spans="4:17">
       <c r="D97" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="4:17" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="4:17">
       <c r="D98" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:17" ht="22.5">
       <c r="D101" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -15820,15 +16206,15 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
-      <c r="M101" s="21"/>
+      <c r="M101" s="19"/>
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
     </row>
-    <row r="103" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="103" spans="4:17">
       <c r="D103" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -15840,21 +16226,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC06E13-7B73-46A2-B06A-DD620359EFA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:AX131"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA17" sqref="BA17"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="2.625" style="7"/>
     <col min="4" max="5" width="2.875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="2.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="5:18" ht="23.25" customHeight="1">
       <c r="E5" s="14" t="s">
         <v>132</v>
       </c>
@@ -15872,7 +16258,7 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="57" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:17" ht="27.75" customHeight="1">
       <c r="D57" s="14" t="s">
         <v>133</v>
       </c>
@@ -15885,15 +16271,15 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:17">
       <c r="D58" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:17">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:17" ht="22.5">
       <c r="D61" s="14" t="s">
         <v>134</v>
       </c>
@@ -15905,125 +16291,125 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
-      <c r="M61" s="21"/>
+      <c r="M61" s="19"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="65" spans="50:50" x14ac:dyDescent="0.15">
+    <row r="65" spans="50:50">
       <c r="AX65" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="5:6">
       <c r="E90" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6">
       <c r="F91" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
       <c r="F92" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="5:6">
       <c r="F93" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="5:6">
       <c r="F94" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="5:6">
       <c r="F95" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="5:6">
       <c r="F96" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
       <c r="F97" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:8">
       <c r="F98" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:8">
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:8">
       <c r="F100" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="5:8">
       <c r="F101" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
       <c r="F102" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="5:8">
       <c r="F103" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="5:8">
       <c r="F104" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="5:8">
       <c r="F105" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:8">
       <c r="F106" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="5:8">
       <c r="F107" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8">
       <c r="E109" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8">
       <c r="F110" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="5:8">
       <c r="F111" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="117" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="4:17" ht="22.5">
       <c r="D117" s="14" t="s">
         <v>136</v>
       </c>
@@ -16035,45 +16421,45 @@
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
-      <c r="M117" s="21"/>
+      <c r="M117" s="19"/>
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
     </row>
-    <row r="119" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:17">
       <c r="D119" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="120" spans="4:17">
       <c r="E120" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:17">
       <c r="D122" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:17">
       <c r="E123" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:17">
       <c r="D125" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="4:17" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="4:17">
       <c r="D126" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="4:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="4:17" ht="22.5">
       <c r="D129" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -16083,15 +16469,15 @@
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
-      <c r="M129" s="21"/>
+      <c r="M129" s="19"/>
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
       <c r="Q129" s="11"/>
     </row>
-    <row r="131" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="131" spans="4:17">
       <c r="D131" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -16103,16 +16489,544 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEE77F-1475-4B0D-BF55-F5CC92154266}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:AG42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB53" sqref="AB53"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:33">
+      <c r="C3" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+    </row>
+    <row r="4" spans="3:33">
+      <c r="C4" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="3:33">
+      <c r="C5" s="25"/>
+      <c r="D5" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="3:33">
+      <c r="C6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="3:33">
+      <c r="C7" s="25"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="3:33">
+      <c r="C8" s="25"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="3:33">
+      <c r="C9" s="25"/>
+      <c r="D9" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="3:33">
+      <c r="C10" s="25"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="3:33">
+      <c r="C11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="3:33">
+      <c r="C12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="27">
+        <v>44617</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="3:33">
+      <c r="C13" s="25"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27">
+        <v>44645</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="3:33">
+      <c r="C14" s="25"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27">
+        <v>44666</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="3:33">
+      <c r="C15" s="25"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27">
+        <v>44680</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="3:33">
+      <c r="C16" s="25"/>
+      <c r="D16" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27">
+        <v>44743</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="25"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="25"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="27">
+        <v>44651</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="36"/>
+      <c r="D20" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="36"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="36"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="36"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="37"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D5:D8"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>